--- a/FALL 19/CSE 208/results_cse208_sec2.xlsx
+++ b/FALL 19/CSE 208/results_cse208_sec2.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB755C0-5BE5-4DBC-AF01-2A49B915C155}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="21840" windowHeight="13740" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="quiz1" sheetId="1" r:id="rId1"/>
-    <sheet name="quiz2" sheetId="4" r:id="rId2"/>
-    <sheet name="quiz_final" sheetId="5" r:id="rId3"/>
-    <sheet name="mid" sheetId="2" r:id="rId4"/>
-    <sheet name="final" sheetId="3" r:id="rId5"/>
+    <sheet name="attendance" sheetId="6" r:id="rId1"/>
+    <sheet name="quiz1" sheetId="1" r:id="rId2"/>
+    <sheet name="quiz2" sheetId="4" r:id="rId3"/>
+    <sheet name="quiz_final" sheetId="5" r:id="rId4"/>
+    <sheet name="mid" sheetId="2" r:id="rId5"/>
+    <sheet name="final" sheetId="3" r:id="rId6"/>
+    <sheet name="project" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <externalReferences>
+    <externalReference r:id="rId8"/>
+  </externalReferences>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="62">
   <si>
     <t>ID</t>
   </si>
@@ -199,12 +203,27 @@
   <si>
     <t>Converted_Total</t>
   </si>
+  <si>
+    <t>Absent</t>
+  </si>
+  <si>
+    <t>Present</t>
+  </si>
+  <si>
+    <t>Presentation</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Afroza Begum</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,11 +374,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -422,12 +442,28 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="60% - Accent1" xfId="1" builtinId="32"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="20">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -610,196 +646,8 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -829,6 +677,514 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="B2">
+            <v>183014056</v>
+          </cell>
+          <cell r="C2">
+            <v>8</v>
+          </cell>
+          <cell r="D2">
+            <v>183014056</v>
+          </cell>
+          <cell r="E2">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>183014063</v>
+          </cell>
+          <cell r="C3">
+            <v>8</v>
+          </cell>
+          <cell r="D3">
+            <v>183014063</v>
+          </cell>
+          <cell r="E3">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>181014002</v>
+          </cell>
+          <cell r="C4">
+            <v>8</v>
+          </cell>
+          <cell r="D4">
+            <v>181014002</v>
+          </cell>
+          <cell r="E4">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>182014030</v>
+          </cell>
+          <cell r="C6">
+            <v>7</v>
+          </cell>
+          <cell r="D6">
+            <v>182014030</v>
+          </cell>
+          <cell r="E6">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7">
+            <v>181014060</v>
+          </cell>
+          <cell r="C7">
+            <v>7</v>
+          </cell>
+          <cell r="D7">
+            <v>181014060</v>
+          </cell>
+          <cell r="E7">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8">
+            <v>181014025</v>
+          </cell>
+          <cell r="C8">
+            <v>7</v>
+          </cell>
+          <cell r="D8">
+            <v>181014025</v>
+          </cell>
+          <cell r="E8">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10">
+            <v>183014017</v>
+          </cell>
+          <cell r="C10">
+            <v>9.5</v>
+          </cell>
+          <cell r="D10">
+            <v>183014017</v>
+          </cell>
+          <cell r="E10">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="B11">
+            <v>183014057</v>
+          </cell>
+          <cell r="C11">
+            <v>9.5</v>
+          </cell>
+          <cell r="D11">
+            <v>183014057</v>
+          </cell>
+          <cell r="E11">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12">
+            <v>181014032</v>
+          </cell>
+          <cell r="C12">
+            <v>9.5</v>
+          </cell>
+          <cell r="D12">
+            <v>181014032</v>
+          </cell>
+          <cell r="E12">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14">
+            <v>182014055</v>
+          </cell>
+          <cell r="C14">
+            <v>8</v>
+          </cell>
+          <cell r="D14">
+            <v>182014055</v>
+          </cell>
+          <cell r="E14">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="B15">
+            <v>183014014</v>
+          </cell>
+          <cell r="C15">
+            <v>8</v>
+          </cell>
+          <cell r="D15">
+            <v>183014014</v>
+          </cell>
+          <cell r="E15">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16">
+            <v>183014052</v>
+          </cell>
+          <cell r="C16">
+            <v>8</v>
+          </cell>
+          <cell r="D16">
+            <v>183014052</v>
+          </cell>
+          <cell r="E16">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18">
+            <v>183014035</v>
+          </cell>
+          <cell r="C18">
+            <v>9</v>
+          </cell>
+          <cell r="D18">
+            <v>183014035</v>
+          </cell>
+          <cell r="E18">
+            <v>8.5</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19">
+            <v>183014073</v>
+          </cell>
+          <cell r="C19">
+            <v>9</v>
+          </cell>
+          <cell r="D19">
+            <v>183014073</v>
+          </cell>
+          <cell r="E19">
+            <v>8.5</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20">
+            <v>182014069</v>
+          </cell>
+          <cell r="C20">
+            <v>9</v>
+          </cell>
+          <cell r="D20">
+            <v>182014069</v>
+          </cell>
+          <cell r="E20">
+            <v>8.5</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22">
+            <v>182014071</v>
+          </cell>
+          <cell r="C22">
+            <v>6</v>
+          </cell>
+          <cell r="D22">
+            <v>182014071</v>
+          </cell>
+          <cell r="E22">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23">
+            <v>171014081</v>
+          </cell>
+          <cell r="C23">
+            <v>6</v>
+          </cell>
+          <cell r="D23">
+            <v>171014081</v>
+          </cell>
+          <cell r="E23">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24">
+            <v>181014057</v>
+          </cell>
+          <cell r="C24">
+            <v>6</v>
+          </cell>
+          <cell r="D24">
+            <v>181014057</v>
+          </cell>
+          <cell r="E24">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25">
+            <v>153014012</v>
+          </cell>
+          <cell r="C25">
+            <v>6</v>
+          </cell>
+          <cell r="D25">
+            <v>153014012</v>
+          </cell>
+          <cell r="E25">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27">
+            <v>183014002</v>
+          </cell>
+          <cell r="C27">
+            <v>9.5</v>
+          </cell>
+          <cell r="D27">
+            <v>183014002</v>
+          </cell>
+          <cell r="E27">
+            <v>9.5</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28">
+            <v>183014004</v>
+          </cell>
+          <cell r="C28">
+            <v>9.5</v>
+          </cell>
+          <cell r="D28">
+            <v>183014004</v>
+          </cell>
+          <cell r="E28">
+            <v>9.5</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="B29">
+            <v>183014029</v>
+          </cell>
+          <cell r="C29">
+            <v>9.5</v>
+          </cell>
+          <cell r="D29">
+            <v>183014029</v>
+          </cell>
+          <cell r="E29">
+            <v>9.5</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="B30">
+            <v>183014050</v>
+          </cell>
+          <cell r="C30">
+            <v>9.5</v>
+          </cell>
+          <cell r="D30">
+            <v>183014050</v>
+          </cell>
+          <cell r="E30">
+            <v>9.5</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="B32">
+            <v>183014007</v>
+          </cell>
+          <cell r="C32">
+            <v>9.5</v>
+          </cell>
+          <cell r="D32">
+            <v>183014007</v>
+          </cell>
+          <cell r="E32">
+            <v>9.5</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33">
+            <v>183014012</v>
+          </cell>
+          <cell r="C33">
+            <v>9.5</v>
+          </cell>
+          <cell r="D33">
+            <v>183014012</v>
+          </cell>
+          <cell r="E33">
+            <v>9.5</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34">
+            <v>173014009</v>
+          </cell>
+          <cell r="C34">
+            <v>9.5</v>
+          </cell>
+          <cell r="D34">
+            <v>173014009</v>
+          </cell>
+          <cell r="E34">
+            <v>9.5</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36">
+            <v>183014009</v>
+          </cell>
+          <cell r="C36">
+            <v>9.5</v>
+          </cell>
+          <cell r="D36">
+            <v>183014009</v>
+          </cell>
+          <cell r="E36">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37">
+            <v>183014046</v>
+          </cell>
+          <cell r="C37">
+            <v>9.5</v>
+          </cell>
+          <cell r="D37">
+            <v>183014046</v>
+          </cell>
+          <cell r="E37">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="B38">
+            <v>181014131</v>
+          </cell>
+          <cell r="C38">
+            <v>9.5</v>
+          </cell>
+          <cell r="D38">
+            <v>181014131</v>
+          </cell>
+          <cell r="E38">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40">
+            <v>183014024</v>
+          </cell>
+          <cell r="C40">
+            <v>7.5</v>
+          </cell>
+          <cell r="D40">
+            <v>183014024</v>
+          </cell>
+          <cell r="E40">
+            <v>6.5</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="B41">
+            <v>173014029</v>
+          </cell>
+          <cell r="C41">
+            <v>7.5</v>
+          </cell>
+          <cell r="D41">
+            <v>173014029</v>
+          </cell>
+          <cell r="E41">
+            <v>6.5</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="B42">
+            <v>181014008</v>
+          </cell>
+          <cell r="C42">
+            <v>7.5</v>
+          </cell>
+          <cell r="D42">
+            <v>181014008</v>
+          </cell>
+          <cell r="E42">
+            <v>6.5</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44">
+            <v>183014031</v>
+          </cell>
+          <cell r="C44">
+            <v>9.5</v>
+          </cell>
+          <cell r="D44">
+            <v>183014031</v>
+          </cell>
+          <cell r="E44">
+            <v>8.5</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="B45">
+            <v>182014052</v>
+          </cell>
+          <cell r="C45">
+            <v>9.5</v>
+          </cell>
+          <cell r="D45">
+            <v>182014052</v>
+          </cell>
+          <cell r="E45">
+            <v>8.5</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="B46">
+            <v>182014061</v>
+          </cell>
+          <cell r="C46">
+            <v>9.5</v>
+          </cell>
+          <cell r="D46">
+            <v>182014061</v>
+          </cell>
+          <cell r="E46">
+            <v>8.5</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -874,7 +1230,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -906,27 +1262,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -958,24 +1296,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1151,22 +1471,1134 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" style="16" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" style="16" customWidth="1"/>
+    <col min="3" max="8" width="14.7109375" style="16" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="6">
+        <v>153014012</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="9">
+        <v>22</v>
+      </c>
+      <c r="D2" s="9">
+        <v>10</v>
+      </c>
+      <c r="E2" s="9">
+        <f>C2-D2</f>
+        <v>12</v>
+      </c>
+      <c r="F2" s="9">
+        <f>ROUNDUP((E2/C2)*F$37,0)</f>
+        <v>6</v>
+      </c>
+      <c r="G2" s="22">
+        <f>(F2/F$37)*100</f>
+        <v>60</v>
+      </c>
+      <c r="H2" s="23" t="str">
+        <f>IF(G2&gt;94,"A+",IF(G2&gt;84,"A",IF(G2&gt;79,"A-",IF(G2&gt;74,"B+",IF(G2&gt;69,"B",IF(G2&gt;64,"B-",IF(G2&gt;59,"C+",IF(G2&gt;54,"C",IF(G2&gt;49,"D","F")))))))))</f>
+        <v>C+</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="6">
+        <v>171014081</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="9">
+        <v>22</v>
+      </c>
+      <c r="D3" s="16">
+        <v>21</v>
+      </c>
+      <c r="E3" s="9">
+        <f t="shared" ref="E3:E36" si="0">C3-D3</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="9">
+        <f t="shared" ref="F3:F36" si="1">ROUNDUP((E3/C3)*F$37,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G3" s="22">
+        <f t="shared" ref="G3:G36" si="2">(F3/F$37)*100</f>
+        <v>10</v>
+      </c>
+      <c r="H3" s="23" t="str">
+        <f t="shared" ref="H3:H36" si="3">IF(G3&gt;94,"A+",IF(G3&gt;84,"A",IF(G3&gt;79,"A-",IF(G3&gt;74,"B+",IF(G3&gt;69,"B",IF(G3&gt;64,"B-",IF(G3&gt;59,"C+",IF(G3&gt;54,"C",IF(G3&gt;49,"D","F")))))))))</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="6">
+        <v>173014009</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="9">
+        <v>22</v>
+      </c>
+      <c r="D4" s="16">
+        <v>15</v>
+      </c>
+      <c r="E4" s="9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F4" s="9">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G4" s="22">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="H4" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="6">
+        <v>173014029</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="9">
+        <v>22</v>
+      </c>
+      <c r="D5" s="16">
+        <v>6</v>
+      </c>
+      <c r="E5" s="9">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="F5" s="9">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="G5" s="22">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="H5" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>A-</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="6">
+        <v>181014002</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="9">
+        <v>22</v>
+      </c>
+      <c r="D6" s="30">
+        <v>6</v>
+      </c>
+      <c r="E6" s="9">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="F6" s="9">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="G6" s="22">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="H6" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>A-</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="6">
+        <v>181014008</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="9">
+        <v>22</v>
+      </c>
+      <c r="D7" s="30">
+        <v>19</v>
+      </c>
+      <c r="E7" s="9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F7" s="9">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G7" s="22">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="H7" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="6">
+        <v>181014025</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="9">
+        <v>22</v>
+      </c>
+      <c r="D8" s="30">
+        <v>4</v>
+      </c>
+      <c r="E8" s="9">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F8" s="9">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G8" s="22">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="H8" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="6">
+        <v>181014032</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="9">
+        <v>22</v>
+      </c>
+      <c r="D9" s="30">
+        <v>9</v>
+      </c>
+      <c r="E9" s="9">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="F9" s="9">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G9" s="22">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="H9" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>C+</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="6">
+        <v>181014057</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="9">
+        <v>22</v>
+      </c>
+      <c r="D10" s="30">
+        <v>7</v>
+      </c>
+      <c r="E10" s="9">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F10" s="9">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="G10" s="22">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="H10" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="6">
+        <v>181014060</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="9">
+        <v>22</v>
+      </c>
+      <c r="D11" s="30">
+        <v>6</v>
+      </c>
+      <c r="E11" s="9">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="F11" s="9">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="G11" s="22">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="H11" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>A-</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="6">
+        <v>181014131</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="9">
+        <v>22</v>
+      </c>
+      <c r="D12" s="30">
+        <v>15</v>
+      </c>
+      <c r="E12" s="9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F12" s="9">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G12" s="22">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="H12" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="6">
+        <v>182014030</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="9">
+        <v>22</v>
+      </c>
+      <c r="D13" s="30">
+        <v>1</v>
+      </c>
+      <c r="E13" s="9">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="F13" s="9">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G13" s="22">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="H13" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>A+</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="6">
+        <v>182014052</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="9">
+        <v>22</v>
+      </c>
+      <c r="D14" s="30">
+        <v>4</v>
+      </c>
+      <c r="E14" s="9">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F14" s="9">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G14" s="22">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="H14" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="6">
+        <v>182014055</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="9">
+        <v>22</v>
+      </c>
+      <c r="D15" s="30">
+        <v>4</v>
+      </c>
+      <c r="E15" s="9">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F15" s="9">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G15" s="22">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="H15" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="6">
+        <v>182014061</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="9">
+        <v>22</v>
+      </c>
+      <c r="D16" s="30">
+        <v>16</v>
+      </c>
+      <c r="E16" s="9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F16" s="9">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="G16" s="22">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="H16" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="6">
+        <v>182014069</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="9">
+        <v>22</v>
+      </c>
+      <c r="D17" s="30">
+        <v>5</v>
+      </c>
+      <c r="E17" s="9">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="F17" s="9">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="G17" s="22">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="H17" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>A-</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="6">
+        <v>182014071</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="9">
+        <v>22</v>
+      </c>
+      <c r="D18" s="30">
+        <v>4</v>
+      </c>
+      <c r="E18" s="9">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F18" s="9">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G18" s="22">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="H18" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="6">
+        <v>183014002</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="9">
+        <v>22</v>
+      </c>
+      <c r="D19" s="30">
+        <v>1</v>
+      </c>
+      <c r="E19" s="9">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="F19" s="9">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G19" s="22">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="H19" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>A+</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="6">
+        <v>183014004</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="9">
+        <v>22</v>
+      </c>
+      <c r="D20" s="30">
+        <v>2</v>
+      </c>
+      <c r="E20" s="9">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F20" s="9">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G20" s="22">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="H20" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>A+</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="6">
+        <v>183014007</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="9">
+        <v>22</v>
+      </c>
+      <c r="D21" s="30">
+        <v>0</v>
+      </c>
+      <c r="E21" s="9">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="F21" s="9">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G21" s="22">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="H21" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>A+</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="6">
+        <v>183014009</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="9">
+        <v>22</v>
+      </c>
+      <c r="D22" s="30">
+        <v>10</v>
+      </c>
+      <c r="E22" s="9">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F22" s="9">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="G22" s="22">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="H22" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>C+</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="6">
+        <v>183014012</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="9">
+        <v>22</v>
+      </c>
+      <c r="D23" s="30">
+        <v>0</v>
+      </c>
+      <c r="E23" s="9">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="F23" s="9">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G23" s="22">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="H23" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>A+</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="6">
+        <v>183014014</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="9">
+        <v>22</v>
+      </c>
+      <c r="D24" s="30">
+        <v>1</v>
+      </c>
+      <c r="E24" s="9">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="F24" s="9">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G24" s="22">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="H24" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>A+</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="6">
+        <v>183014017</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="9">
+        <v>22</v>
+      </c>
+      <c r="D25" s="30">
+        <v>0</v>
+      </c>
+      <c r="E25" s="9">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="F25" s="9">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G25" s="22">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="H25" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>A+</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="6">
+        <v>183014024</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="9">
+        <v>22</v>
+      </c>
+      <c r="D26" s="30">
+        <v>1</v>
+      </c>
+      <c r="E26" s="9">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="F26" s="9">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G26" s="22">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="H26" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>A+</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="6">
+        <v>183014029</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="9">
+        <v>22</v>
+      </c>
+      <c r="D27" s="30">
+        <v>14</v>
+      </c>
+      <c r="E27" s="9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F27" s="9">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G27" s="22">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="H27" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="6">
+        <v>183014031</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="9">
+        <v>22</v>
+      </c>
+      <c r="D28" s="30">
+        <v>0</v>
+      </c>
+      <c r="E28" s="9">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="F28" s="9">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G28" s="22">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="H28" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>A+</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="6">
+        <v>183014035</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="9">
+        <v>22</v>
+      </c>
+      <c r="D29" s="30">
+        <v>4</v>
+      </c>
+      <c r="E29" s="9">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F29" s="9">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G29" s="22">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="H29" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="6">
+        <v>183014046</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="9">
+        <v>22</v>
+      </c>
+      <c r="D30" s="30">
+        <v>1</v>
+      </c>
+      <c r="E30" s="9">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="F30" s="9">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G30" s="22">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="H30" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>A+</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="6">
+        <v>183014050</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="9">
+        <v>22</v>
+      </c>
+      <c r="D31" s="30">
+        <v>0</v>
+      </c>
+      <c r="E31" s="9">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="F31" s="9">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G31" s="22">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="H31" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>A+</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="6">
+        <v>183014052</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="9">
+        <v>22</v>
+      </c>
+      <c r="D32" s="30">
+        <v>6</v>
+      </c>
+      <c r="E32" s="9">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="F32" s="9">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="G32" s="22">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="H32" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>A-</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="6">
+        <v>183014056</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="9">
+        <v>22</v>
+      </c>
+      <c r="D33" s="30">
+        <v>0</v>
+      </c>
+      <c r="E33" s="9">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="F33" s="9">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G33" s="22">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="H33" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>A+</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="6">
+        <v>183014057</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="9">
+        <v>22</v>
+      </c>
+      <c r="D34" s="30">
+        <v>4</v>
+      </c>
+      <c r="E34" s="9">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F34" s="9">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G34" s="22">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="H34" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="6">
+        <v>183014063</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="9">
+        <v>22</v>
+      </c>
+      <c r="D35" s="30">
+        <v>0</v>
+      </c>
+      <c r="E35" s="9">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="F35" s="9">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G35" s="22">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="H35" s="23" t="str">
+        <f t="shared" si="3"/>
+        <v>A+</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A36" s="11">
+        <v>183014073</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="14">
+        <v>22</v>
+      </c>
+      <c r="D36" s="17">
+        <v>4</v>
+      </c>
+      <c r="E36" s="14">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F36" s="14">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G36" s="20">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="H36" s="25" t="str">
+        <f t="shared" si="3"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="F37" s="16">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2:E2 E3:E36 C3:C36">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="greaterThan">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H36">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L36"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" style="1" customWidth="1"/>
-    <col min="3" max="12" width="14.6640625" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="14.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="3" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.95" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1204,7 +2636,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="15" customHeight="1">
       <c r="A2" s="6">
         <v>153014012</v>
       </c>
@@ -1246,7 +2678,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="15" customHeight="1">
       <c r="A3" s="6">
         <v>171014081</v>
       </c>
@@ -1282,7 +2714,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="15" customHeight="1">
       <c r="A4" s="6">
         <v>173014009</v>
       </c>
@@ -1324,7 +2756,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="15" customHeight="1">
       <c r="A5" s="6">
         <v>173014029</v>
       </c>
@@ -1366,7 +2798,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="15" customHeight="1">
       <c r="A6" s="6">
         <v>181014002</v>
       </c>
@@ -1408,7 +2840,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="15" customHeight="1">
       <c r="A7" s="6">
         <v>181014008</v>
       </c>
@@ -1444,7 +2876,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="15" customHeight="1">
       <c r="A8" s="6">
         <v>181014025</v>
       </c>
@@ -1480,7 +2912,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="15" customHeight="1">
       <c r="A9" s="6">
         <v>181014032</v>
       </c>
@@ -1516,7 +2948,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="15" customHeight="1">
       <c r="A10" s="6">
         <v>181014057</v>
       </c>
@@ -1552,7 +2984,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="15" customHeight="1">
       <c r="A11" s="6">
         <v>181014060</v>
       </c>
@@ -1594,7 +3026,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="15" customHeight="1">
       <c r="A12" s="6">
         <v>181014131</v>
       </c>
@@ -1630,7 +3062,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="15" customHeight="1">
       <c r="A13" s="6">
         <v>182014030</v>
       </c>
@@ -1666,7 +3098,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="15" customHeight="1">
       <c r="A14" s="6">
         <v>182014052</v>
       </c>
@@ -1708,7 +3140,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="15" customHeight="1">
       <c r="A15" s="6">
         <v>182014055</v>
       </c>
@@ -1750,7 +3182,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="15" customHeight="1">
       <c r="A16" s="6">
         <v>182014061</v>
       </c>
@@ -1786,7 +3218,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="15" customHeight="1">
       <c r="A17" s="6">
         <v>182014069</v>
       </c>
@@ -1828,7 +3260,7 @@
         <v>A-</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="15" customHeight="1">
       <c r="A18" s="6">
         <v>182014071</v>
       </c>
@@ -1870,7 +3302,7 @@
         <v>B-</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="15" customHeight="1">
       <c r="A19" s="6">
         <v>183014002</v>
       </c>
@@ -1912,7 +3344,7 @@
         <v>A+</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="15" customHeight="1">
       <c r="A20" s="6">
         <v>183014004</v>
       </c>
@@ -1954,7 +3386,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="15" customHeight="1">
       <c r="A21" s="6">
         <v>183014007</v>
       </c>
@@ -1996,7 +3428,7 @@
         <v>A+</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="15" customHeight="1">
       <c r="A22" s="6">
         <v>183014009</v>
       </c>
@@ -2032,7 +3464,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="15" customHeight="1">
       <c r="A23" s="6">
         <v>183014012</v>
       </c>
@@ -2074,7 +3506,7 @@
         <v>A-</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="15" customHeight="1">
       <c r="A24" s="6">
         <v>183014014</v>
       </c>
@@ -2116,7 +3548,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="15" customHeight="1">
       <c r="A25" s="6">
         <v>183014017</v>
       </c>
@@ -2158,7 +3590,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="15" customHeight="1">
       <c r="A26" s="6">
         <v>183014024</v>
       </c>
@@ -2200,7 +3632,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="15" customHeight="1">
       <c r="A27" s="6">
         <v>183014029</v>
       </c>
@@ -2236,7 +3668,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="15" customHeight="1">
       <c r="A28" s="6">
         <v>183014031</v>
       </c>
@@ -2278,7 +3710,7 @@
         <v>A+</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="15" customHeight="1">
       <c r="A29" s="6">
         <v>183014035</v>
       </c>
@@ -2320,7 +3752,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="15" customHeight="1">
       <c r="A30" s="6">
         <v>183014046</v>
       </c>
@@ -2362,7 +3794,7 @@
         <v>B-</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="15" customHeight="1">
       <c r="A31" s="6">
         <v>183014050</v>
       </c>
@@ -2404,7 +3836,7 @@
         <v>A+</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="15" customHeight="1">
       <c r="A32" s="6">
         <v>183014052</v>
       </c>
@@ -2440,7 +3872,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="15" customHeight="1">
       <c r="A33" s="6">
         <v>183014056</v>
       </c>
@@ -2482,7 +3914,7 @@
         <v>A+</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="15" customHeight="1">
       <c r="A34" s="6">
         <v>183014057</v>
       </c>
@@ -2524,7 +3956,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" ht="15" customHeight="1">
       <c r="A35" s="6">
         <v>183014063</v>
       </c>
@@ -2566,7 +3998,7 @@
         <v>A+</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" ht="15" customHeight="1" thickBot="1">
       <c r="A36" s="11">
         <v>183014073</v>
       </c>
@@ -2610,22 +4042,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C36">
-    <cfRule type="cellIs" dxfId="32" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="greaterThan">
       <formula>$D$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E36">
-    <cfRule type="cellIs" dxfId="31" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="greaterThan">
       <formula>$F$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G36">
-    <cfRule type="cellIs" dxfId="30" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="greaterThan">
       <formula>$H$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L36">
-    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2634,22 +4066,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EFFB9F8-A5BB-4DE7-A752-144D3BF4FE92}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2:G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" customWidth="1"/>
-    <col min="2" max="2" width="30.77734375" customWidth="1"/>
-    <col min="3" max="10" width="14.77734375" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="10" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2681,7 +4113,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="6">
         <v>153014012</v>
       </c>
@@ -2715,7 +4147,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="6">
         <v>171014081</v>
       </c>
@@ -2747,7 +4179,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4" s="6">
         <v>173014009</v>
       </c>
@@ -2779,7 +4211,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10">
       <c r="A5" s="6">
         <v>173014029</v>
       </c>
@@ -2815,7 +4247,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10">
       <c r="A6" s="6">
         <v>181014002</v>
       </c>
@@ -2851,7 +4283,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10">
       <c r="A7" s="6">
         <v>181014008</v>
       </c>
@@ -2883,7 +4315,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10">
       <c r="A8" s="6">
         <v>181014025</v>
       </c>
@@ -2919,7 +4351,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10">
       <c r="A9" s="6">
         <v>181014032</v>
       </c>
@@ -2953,7 +4385,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10">
       <c r="A10" s="6">
         <v>181014057</v>
       </c>
@@ -2989,7 +4421,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10">
       <c r="A11" s="6">
         <v>181014060</v>
       </c>
@@ -3025,7 +4457,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10">
       <c r="A12" s="6">
         <v>181014131</v>
       </c>
@@ -3057,7 +4489,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10">
       <c r="A13" s="6">
         <v>182014030</v>
       </c>
@@ -3093,7 +4525,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10">
       <c r="A14" s="6">
         <v>182014052</v>
       </c>
@@ -3129,7 +4561,7 @@
         <v>C+</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10">
       <c r="A15" s="6">
         <v>182014055</v>
       </c>
@@ -3165,7 +4597,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10">
       <c r="A16" s="6">
         <v>182014061</v>
       </c>
@@ -3197,7 +4629,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10">
       <c r="A17" s="6">
         <v>182014069</v>
       </c>
@@ -3233,7 +4665,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10">
       <c r="A18" s="6">
         <v>182014071</v>
       </c>
@@ -3269,7 +4701,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10">
       <c r="A19" s="6">
         <v>183014002</v>
       </c>
@@ -3305,7 +4737,7 @@
         <v>C+</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10">
       <c r="A20" s="6">
         <v>183014004</v>
       </c>
@@ -3341,7 +4773,7 @@
         <v>C+</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10">
       <c r="A21" s="6">
         <v>183014007</v>
       </c>
@@ -3377,7 +4809,7 @@
         <v>A-</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10">
       <c r="A22" s="6">
         <v>183014009</v>
       </c>
@@ -3413,7 +4845,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10">
       <c r="A23" s="6">
         <v>183014012</v>
       </c>
@@ -3449,7 +4881,7 @@
         <v>B+</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10">
       <c r="A24" s="6">
         <v>183014014</v>
       </c>
@@ -3485,7 +4917,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10">
       <c r="A25" s="6">
         <v>183014017</v>
       </c>
@@ -3521,7 +4953,7 @@
         <v>A+</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10">
       <c r="A26" s="6">
         <v>183014024</v>
       </c>
@@ -3557,7 +4989,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10">
       <c r="A27" s="6">
         <v>183014029</v>
       </c>
@@ -3589,7 +5021,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10">
       <c r="A28" s="6">
         <v>183014031</v>
       </c>
@@ -3625,7 +5057,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10">
       <c r="A29" s="6">
         <v>183014035</v>
       </c>
@@ -3661,7 +5093,7 @@
         <v>B-</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10">
       <c r="A30" s="6">
         <v>183014046</v>
       </c>
@@ -3697,7 +5129,7 @@
         <v>C+</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10">
       <c r="A31" s="6">
         <v>183014050</v>
       </c>
@@ -3733,7 +5165,7 @@
         <v>B-</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10">
       <c r="A32" s="6">
         <v>183014052</v>
       </c>
@@ -3769,7 +5201,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10">
       <c r="A33" s="6">
         <v>183014056</v>
       </c>
@@ -3805,7 +5237,7 @@
         <v>C+</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10">
       <c r="A34" s="6">
         <v>183014057</v>
       </c>
@@ -3841,7 +5273,7 @@
         <v>B-</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10">
       <c r="A35" s="6">
         <v>183014063</v>
       </c>
@@ -3877,7 +5309,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" ht="15.75" thickBot="1">
       <c r="A36" s="11">
         <v>183014073</v>
       </c>
@@ -3915,17 +5347,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C36">
-    <cfRule type="cellIs" dxfId="38" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="greaterThan">
       <formula>$D$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E36">
-    <cfRule type="cellIs" dxfId="37" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="greaterThan">
       <formula>$F$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J36">
-    <cfRule type="cellIs" dxfId="28" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3933,22 +5365,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE1C4907-0D70-4907-ACBE-1EA041C63331}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" customWidth="1"/>
-    <col min="2" max="2" width="30.77734375" customWidth="1"/>
-    <col min="3" max="12" width="14.77734375" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="12" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="29" customFormat="1">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -3986,7 +5418,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12">
       <c r="A2" s="6">
         <v>153014012</v>
       </c>
@@ -4029,7 +5461,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12">
       <c r="A3" s="6">
         <v>171014081</v>
       </c>
@@ -4049,7 +5481,7 @@
         <v>20</v>
       </c>
       <c r="G3" s="16">
-        <f t="shared" ref="G3:H41" si="0">C3+E3</f>
+        <f t="shared" ref="G3:H36" si="0">C3+E3</f>
         <v>0</v>
       </c>
       <c r="H3" s="16">
@@ -4057,22 +5489,22 @@
         <v>40</v>
       </c>
       <c r="I3" s="16">
-        <f t="shared" ref="I3:I41" si="1">(G3/H3)*J3</f>
+        <f t="shared" ref="I3:I36" si="1">(G3/H3)*J3</f>
         <v>0</v>
       </c>
       <c r="J3" s="16">
         <v>20</v>
       </c>
       <c r="K3" s="22">
-        <f t="shared" ref="K3:K41" si="2">(I3/J3)*100</f>
+        <f t="shared" ref="K3:K36" si="2">(I3/J3)*100</f>
         <v>0</v>
       </c>
       <c r="L3" s="23" t="str">
-        <f t="shared" ref="L3:L41" si="3">IF(K3&gt;94,"A+",IF(K3&gt;84,"A",IF(K3&gt;79,"A-",IF(K3&gt;74,"B+",IF(K3&gt;69,"B",IF(K3&gt;64,"B-",IF(K3&gt;59,"C+",IF(K3&gt;54,"C",IF(K3&gt;49,"D","F")))))))))</f>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+        <f t="shared" ref="L3:L36" si="3">IF(K3&gt;94,"A+",IF(K3&gt;84,"A",IF(K3&gt;79,"A-",IF(K3&gt;74,"B+",IF(K3&gt;69,"B",IF(K3&gt;64,"B-",IF(K3&gt;59,"C+",IF(K3&gt;54,"C",IF(K3&gt;49,"D","F")))))))))</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="6">
         <v>173014009</v>
       </c>
@@ -4115,7 +5547,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="A5" s="6">
         <v>173014029</v>
       </c>
@@ -4158,7 +5590,7 @@
         <v>B-</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12">
       <c r="A6" s="6">
         <v>181014002</v>
       </c>
@@ -4201,7 +5633,7 @@
         <v>B-</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12">
       <c r="A7" s="6">
         <v>181014008</v>
       </c>
@@ -4244,7 +5676,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12">
       <c r="A8" s="6">
         <v>181014025</v>
       </c>
@@ -4287,7 +5719,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12">
       <c r="A9" s="6">
         <v>181014032</v>
       </c>
@@ -4330,7 +5762,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12">
       <c r="A10" s="6">
         <v>181014057</v>
       </c>
@@ -4373,7 +5805,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12">
       <c r="A11" s="6">
         <v>181014060</v>
       </c>
@@ -4416,7 +5848,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12">
       <c r="A12" s="6">
         <v>181014131</v>
       </c>
@@ -4459,7 +5891,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12">
       <c r="A13" s="6">
         <v>182014030</v>
       </c>
@@ -4502,7 +5934,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12">
       <c r="A14" s="6">
         <v>182014052</v>
       </c>
@@ -4545,7 +5977,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12">
       <c r="A15" s="6">
         <v>182014055</v>
       </c>
@@ -4588,7 +6020,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12">
       <c r="A16" s="6">
         <v>182014061</v>
       </c>
@@ -4631,7 +6063,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12">
       <c r="A17" s="6">
         <v>182014069</v>
       </c>
@@ -4674,7 +6106,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12">
       <c r="A18" s="6">
         <v>182014071</v>
       </c>
@@ -4717,7 +6149,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12">
       <c r="A19" s="6">
         <v>183014002</v>
       </c>
@@ -4760,7 +6192,7 @@
         <v>B+</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12">
       <c r="A20" s="6">
         <v>183014004</v>
       </c>
@@ -4803,7 +6235,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12">
       <c r="A21" s="6">
         <v>183014007</v>
       </c>
@@ -4846,7 +6278,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12">
       <c r="A22" s="6">
         <v>183014009</v>
       </c>
@@ -4889,7 +6321,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12">
       <c r="A23" s="6">
         <v>183014012</v>
       </c>
@@ -4932,7 +6364,7 @@
         <v>B+</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12">
       <c r="A24" s="6">
         <v>183014014</v>
       </c>
@@ -4975,7 +6407,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12">
       <c r="A25" s="6">
         <v>183014017</v>
       </c>
@@ -5018,7 +6450,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12">
       <c r="A26" s="6">
         <v>183014024</v>
       </c>
@@ -5061,7 +6493,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12">
       <c r="A27" s="6">
         <v>183014029</v>
       </c>
@@ -5104,7 +6536,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12">
       <c r="A28" s="6">
         <v>183014031</v>
       </c>
@@ -5147,7 +6579,7 @@
         <v>A+</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12">
       <c r="A29" s="6">
         <v>183014035</v>
       </c>
@@ -5190,7 +6622,7 @@
         <v>C+</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12">
       <c r="A30" s="6">
         <v>183014046</v>
       </c>
@@ -5233,7 +6665,7 @@
         <v>C+</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12">
       <c r="A31" s="6">
         <v>183014050</v>
       </c>
@@ -5276,7 +6708,7 @@
         <v>A-</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12">
       <c r="A32" s="6">
         <v>183014052</v>
       </c>
@@ -5319,7 +6751,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12">
       <c r="A33" s="6">
         <v>183014056</v>
       </c>
@@ -5362,7 +6794,7 @@
         <v>A-</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12">
       <c r="A34" s="6">
         <v>183014057</v>
       </c>
@@ -5405,7 +6837,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12">
       <c r="A35" s="6">
         <v>183014063</v>
       </c>
@@ -5448,7 +6880,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" ht="15.75" thickBot="1">
       <c r="A36" s="11">
         <v>183014073</v>
       </c>
@@ -5491,23 +6923,23 @@
         <v>F</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12">
       <c r="K37" s="18"/>
       <c r="L37" s="21"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12">
       <c r="K38" s="18"/>
       <c r="L38" s="21"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12">
       <c r="K39" s="19"/>
       <c r="L39" s="21"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12">
       <c r="K40" s="19"/>
       <c r="L40" s="21"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12">
       <c r="G41" s="16"/>
       <c r="H41" s="16"/>
       <c r="I41" s="16"/>
@@ -5517,1665 +6949,6 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="L2:L41">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
-      <formula>"F"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:N36"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:N36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" customWidth="1"/>
-    <col min="3" max="13" width="14.6640625" customWidth="1"/>
-    <col min="14" max="14" width="14.6640625" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
-        <v>153014012</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8">
-        <v>8</v>
-      </c>
-      <c r="E2" s="8">
-        <v>3</v>
-      </c>
-      <c r="F2" s="8">
-        <v>4</v>
-      </c>
-      <c r="G2" s="8">
-        <v>1</v>
-      </c>
-      <c r="H2" s="8">
-        <v>4</v>
-      </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8">
-        <v>4</v>
-      </c>
-      <c r="K2" s="8">
-        <f t="shared" ref="K2:K36" si="0">C2+E2+G2+I2</f>
-        <v>4</v>
-      </c>
-      <c r="L2" s="8">
-        <f t="shared" ref="L2:L36" si="1">D2+F2+H2+J2</f>
-        <v>20</v>
-      </c>
-      <c r="M2" s="9">
-        <f>(K2/L2)*100</f>
-        <v>20</v>
-      </c>
-      <c r="N2" s="10" t="str">
-        <f>IF(M2&gt;94,"A+",IF(M2&gt;84,"A",IF(M2&gt;79,"A-",IF(M2&gt;74,"B+",IF(M2&gt;69,"B",IF(M2&gt;64,"B-",IF(M2&gt;59,"C+",IF(M2&gt;54,"C",IF(M2&gt;49,"D","F")))))))))</f>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
-        <v>171014081</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8">
-        <v>8</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8">
-        <v>4</v>
-      </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8">
-        <v>4</v>
-      </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8">
-        <v>4</v>
-      </c>
-      <c r="K3" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L3" s="8">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="M3" s="9">
-        <f t="shared" ref="M3:M36" si="2">(K3/L3)*100</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="10" t="str">
-        <f t="shared" ref="N3:N36" si="3">IF(M3&gt;94,"A+",IF(M3&gt;84,"A",IF(M3&gt;79,"A-",IF(M3&gt;74,"B+",IF(M3&gt;69,"B",IF(M3&gt;64,"B-",IF(M3&gt;59,"C+",IF(M3&gt;54,"C",IF(M3&gt;49,"D","F")))))))))</f>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
-        <v>173014009</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="8">
-        <v>2</v>
-      </c>
-      <c r="D4" s="8">
-        <v>8</v>
-      </c>
-      <c r="E4" s="8">
-        <v>1</v>
-      </c>
-      <c r="F4" s="8">
-        <v>4</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8">
-        <v>4</v>
-      </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8">
-        <v>4</v>
-      </c>
-      <c r="K4" s="8">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="L4" s="8">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="M4" s="9">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="N4" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
-        <v>173014029</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="8">
-        <v>1</v>
-      </c>
-      <c r="D5" s="8">
-        <v>8</v>
-      </c>
-      <c r="E5" s="8">
-        <v>2</v>
-      </c>
-      <c r="F5" s="8">
-        <v>4</v>
-      </c>
-      <c r="G5" s="8">
-        <v>2</v>
-      </c>
-      <c r="H5" s="8">
-        <v>4</v>
-      </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8">
-        <v>4</v>
-      </c>
-      <c r="K5" s="8">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="L5" s="8">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="M5" s="9">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="N5" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
-        <v>181014002</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="8">
-        <v>2</v>
-      </c>
-      <c r="D6" s="8">
-        <v>8</v>
-      </c>
-      <c r="E6" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="F6" s="8">
-        <v>4</v>
-      </c>
-      <c r="G6" s="8">
-        <v>1</v>
-      </c>
-      <c r="H6" s="8">
-        <v>4</v>
-      </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8">
-        <v>4</v>
-      </c>
-      <c r="K6" s="8">
-        <f t="shared" si="0"/>
-        <v>4.5</v>
-      </c>
-      <c r="L6" s="8">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="M6" s="9">
-        <f t="shared" si="2"/>
-        <v>22.5</v>
-      </c>
-      <c r="N6" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
-        <v>181014008</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8">
-        <v>8</v>
-      </c>
-      <c r="E7" s="8">
-        <v>2</v>
-      </c>
-      <c r="F7" s="8">
-        <v>4</v>
-      </c>
-      <c r="G7" s="8">
-        <v>2</v>
-      </c>
-      <c r="H7" s="8">
-        <v>4</v>
-      </c>
-      <c r="I7" s="8">
-        <v>1</v>
-      </c>
-      <c r="J7" s="8">
-        <v>4</v>
-      </c>
-      <c r="K7" s="8">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="L7" s="8">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="M7" s="9">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="N7" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
-        <v>181014025</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="8">
-        <v>1</v>
-      </c>
-      <c r="D8" s="8">
-        <v>8</v>
-      </c>
-      <c r="E8" s="8">
-        <v>2</v>
-      </c>
-      <c r="F8" s="8">
-        <v>4</v>
-      </c>
-      <c r="G8" s="8">
-        <v>2</v>
-      </c>
-      <c r="H8" s="8">
-        <v>4</v>
-      </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8">
-        <v>4</v>
-      </c>
-      <c r="K8" s="8">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="L8" s="8">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="M8" s="9">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="N8" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
-        <v>181014032</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8">
-        <v>8</v>
-      </c>
-      <c r="E9" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="F9" s="8">
-        <v>4</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8">
-        <v>4</v>
-      </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8">
-        <v>4</v>
-      </c>
-      <c r="K9" s="8">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="L9" s="8">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="M9" s="9">
-        <f t="shared" si="2"/>
-        <v>7.5</v>
-      </c>
-      <c r="N9" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
-        <v>181014057</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="8">
-        <v>1</v>
-      </c>
-      <c r="D10" s="8">
-        <v>8</v>
-      </c>
-      <c r="E10" s="8">
-        <v>1</v>
-      </c>
-      <c r="F10" s="8">
-        <v>4</v>
-      </c>
-      <c r="G10" s="8">
-        <v>2</v>
-      </c>
-      <c r="H10" s="8">
-        <v>4</v>
-      </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8">
-        <v>4</v>
-      </c>
-      <c r="K10" s="8">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="L10" s="8">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="M10" s="9">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="N10" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
-        <v>181014060</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="8">
-        <v>3</v>
-      </c>
-      <c r="D11" s="8">
-        <v>8</v>
-      </c>
-      <c r="E11" s="8">
-        <v>2.5</v>
-      </c>
-      <c r="F11" s="8">
-        <v>4</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8">
-        <v>4</v>
-      </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8">
-        <v>4</v>
-      </c>
-      <c r="K11" s="8">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="L11" s="8">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="M11" s="9">
-        <f t="shared" si="2"/>
-        <v>27.500000000000004</v>
-      </c>
-      <c r="N11" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
-        <v>181014131</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8">
-        <v>8</v>
-      </c>
-      <c r="E12" s="8">
-        <v>3</v>
-      </c>
-      <c r="F12" s="8">
-        <v>4</v>
-      </c>
-      <c r="G12" s="8">
-        <v>1</v>
-      </c>
-      <c r="H12" s="8">
-        <v>4</v>
-      </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8">
-        <v>4</v>
-      </c>
-      <c r="K12" s="8">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="L12" s="8">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="M12" s="9">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="N12" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
-        <v>182014030</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="8">
-        <v>4</v>
-      </c>
-      <c r="D13" s="8">
-        <v>8</v>
-      </c>
-      <c r="E13" s="8">
-        <v>2</v>
-      </c>
-      <c r="F13" s="8">
-        <v>4</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8">
-        <v>4</v>
-      </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8">
-        <v>4</v>
-      </c>
-      <c r="K13" s="8">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="L13" s="8">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="M13" s="9">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="N13" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
-        <v>182014052</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="8">
-        <v>6.5</v>
-      </c>
-      <c r="D14" s="8">
-        <v>8</v>
-      </c>
-      <c r="E14" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="F14" s="8">
-        <v>4</v>
-      </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8">
-        <v>4</v>
-      </c>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8">
-        <v>4</v>
-      </c>
-      <c r="K14" s="8">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="L14" s="8">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="M14" s="9">
-        <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="N14" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
-        <v>182014055</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="8">
-        <v>5</v>
-      </c>
-      <c r="D15" s="8">
-        <v>8</v>
-      </c>
-      <c r="E15" s="8">
-        <v>3</v>
-      </c>
-      <c r="F15" s="8">
-        <v>4</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8">
-        <v>4</v>
-      </c>
-      <c r="I15" s="8">
-        <v>1</v>
-      </c>
-      <c r="J15" s="8">
-        <v>4</v>
-      </c>
-      <c r="K15" s="8">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="L15" s="8">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="M15" s="9">
-        <f t="shared" si="2"/>
-        <v>45</v>
-      </c>
-      <c r="N15" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
-        <v>182014061</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8">
-        <v>8</v>
-      </c>
-      <c r="E16" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="F16" s="8">
-        <v>4</v>
-      </c>
-      <c r="G16" s="8">
-        <v>4</v>
-      </c>
-      <c r="H16" s="8">
-        <v>4</v>
-      </c>
-      <c r="I16" s="8">
-        <v>1</v>
-      </c>
-      <c r="J16" s="8">
-        <v>4</v>
-      </c>
-      <c r="K16" s="8">
-        <f t="shared" si="0"/>
-        <v>6.5</v>
-      </c>
-      <c r="L16" s="8">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="M16" s="9">
-        <f t="shared" si="2"/>
-        <v>32.5</v>
-      </c>
-      <c r="N16" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="6">
-        <v>182014069</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="8">
-        <v>1</v>
-      </c>
-      <c r="D17" s="8">
-        <v>8</v>
-      </c>
-      <c r="E17" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="F17" s="8">
-        <v>4</v>
-      </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8">
-        <v>4</v>
-      </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8">
-        <v>4</v>
-      </c>
-      <c r="K17" s="8">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-      <c r="L17" s="8">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="M17" s="9">
-        <f t="shared" si="2"/>
-        <v>12.5</v>
-      </c>
-      <c r="N17" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
-        <v>182014071</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8">
-        <v>8</v>
-      </c>
-      <c r="E18" s="8">
-        <v>1</v>
-      </c>
-      <c r="F18" s="8">
-        <v>4</v>
-      </c>
-      <c r="G18" s="8">
-        <v>1</v>
-      </c>
-      <c r="H18" s="8">
-        <v>4</v>
-      </c>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8">
-        <v>4</v>
-      </c>
-      <c r="K18" s="8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="L18" s="8">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="M18" s="9">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="N18" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="6">
-        <v>183014002</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="8">
-        <v>3</v>
-      </c>
-      <c r="D19" s="8">
-        <v>8</v>
-      </c>
-      <c r="E19" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="F19" s="8">
-        <v>4</v>
-      </c>
-      <c r="G19" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="H19" s="8">
-        <v>4</v>
-      </c>
-      <c r="I19" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="J19" s="8">
-        <v>4</v>
-      </c>
-      <c r="K19" s="8">
-        <f t="shared" si="0"/>
-        <v>7.5</v>
-      </c>
-      <c r="L19" s="8">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="M19" s="9">
-        <f t="shared" si="2"/>
-        <v>37.5</v>
-      </c>
-      <c r="N19" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="6">
-        <v>183014004</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8">
-        <v>8</v>
-      </c>
-      <c r="E20" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="F20" s="8">
-        <v>4</v>
-      </c>
-      <c r="G20" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="H20" s="8">
-        <v>4</v>
-      </c>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8">
-        <v>4</v>
-      </c>
-      <c r="K20" s="8">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="L20" s="8">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="M20" s="9">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="N20" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="6">
-        <v>183014007</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="8">
-        <v>6.5</v>
-      </c>
-      <c r="D21" s="8">
-        <v>8</v>
-      </c>
-      <c r="E21" s="8">
-        <v>4</v>
-      </c>
-      <c r="F21" s="8">
-        <v>4</v>
-      </c>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8">
-        <v>4</v>
-      </c>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8">
-        <v>4</v>
-      </c>
-      <c r="K21" s="8">
-        <f t="shared" si="0"/>
-        <v>10.5</v>
-      </c>
-      <c r="L21" s="8">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="M21" s="9">
-        <f t="shared" si="2"/>
-        <v>52.5</v>
-      </c>
-      <c r="N21" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>D</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="6">
-        <v>183014009</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="8">
-        <v>8</v>
-      </c>
-      <c r="D22" s="8">
-        <v>8</v>
-      </c>
-      <c r="E22" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="F22" s="8">
-        <v>4</v>
-      </c>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8">
-        <v>4</v>
-      </c>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8">
-        <v>4</v>
-      </c>
-      <c r="K22" s="8">
-        <f t="shared" si="0"/>
-        <v>9.5</v>
-      </c>
-      <c r="L22" s="8">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="M22" s="9">
-        <f t="shared" si="2"/>
-        <v>47.5</v>
-      </c>
-      <c r="N22" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="6">
-        <v>183014012</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="8">
-        <v>2</v>
-      </c>
-      <c r="D23" s="8">
-        <v>8</v>
-      </c>
-      <c r="E23" s="8">
-        <v>3.5</v>
-      </c>
-      <c r="F23" s="8">
-        <v>4</v>
-      </c>
-      <c r="G23" s="8">
-        <v>1</v>
-      </c>
-      <c r="H23" s="8">
-        <v>4</v>
-      </c>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8">
-        <v>4</v>
-      </c>
-      <c r="K23" s="8">
-        <f t="shared" si="0"/>
-        <v>6.5</v>
-      </c>
-      <c r="L23" s="8">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="M23" s="9">
-        <f t="shared" si="2"/>
-        <v>32.5</v>
-      </c>
-      <c r="N23" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="6">
-        <v>183014014</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="8">
-        <v>1</v>
-      </c>
-      <c r="D24" s="8">
-        <v>8</v>
-      </c>
-      <c r="E24" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="F24" s="8">
-        <v>4</v>
-      </c>
-      <c r="G24" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="H24" s="8">
-        <v>4</v>
-      </c>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8">
-        <v>4</v>
-      </c>
-      <c r="K24" s="8">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="L24" s="8">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="M24" s="9">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="N24" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="6">
-        <v>183014017</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="8">
-        <v>8</v>
-      </c>
-      <c r="D25" s="8">
-        <v>8</v>
-      </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8">
-        <v>4</v>
-      </c>
-      <c r="G25" s="8">
-        <v>4</v>
-      </c>
-      <c r="H25" s="8">
-        <v>4</v>
-      </c>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8">
-        <v>4</v>
-      </c>
-      <c r="K25" s="8">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="L25" s="8">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="M25" s="9">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="N25" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>C+</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="6">
-        <v>183014024</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="8">
-        <v>1</v>
-      </c>
-      <c r="D26" s="8">
-        <v>8</v>
-      </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8">
-        <v>4</v>
-      </c>
-      <c r="G26" s="8">
-        <v>3</v>
-      </c>
-      <c r="H26" s="8">
-        <v>4</v>
-      </c>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8">
-        <v>4</v>
-      </c>
-      <c r="K26" s="8">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="L26" s="8">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="M26" s="9">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="N26" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="6">
-        <v>183014029</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="8">
-        <v>1</v>
-      </c>
-      <c r="D27" s="8">
-        <v>8</v>
-      </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8">
-        <v>4</v>
-      </c>
-      <c r="G27" s="8">
-        <v>0</v>
-      </c>
-      <c r="H27" s="8">
-        <v>4</v>
-      </c>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8">
-        <v>4</v>
-      </c>
-      <c r="K27" s="8">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L27" s="8">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="M27" s="9">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="N27" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="6">
-        <v>183014031</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="8">
-        <v>2</v>
-      </c>
-      <c r="D28" s="8">
-        <v>8</v>
-      </c>
-      <c r="E28" s="8">
-        <v>3.5</v>
-      </c>
-      <c r="F28" s="8">
-        <v>4</v>
-      </c>
-      <c r="G28" s="8">
-        <v>2.5</v>
-      </c>
-      <c r="H28" s="8">
-        <v>4</v>
-      </c>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8">
-        <v>4</v>
-      </c>
-      <c r="K28" s="8">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="L28" s="8">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="M28" s="9">
-        <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="N28" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="6">
-        <v>183014035</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="8">
-        <v>5.5</v>
-      </c>
-      <c r="D29" s="8">
-        <v>8</v>
-      </c>
-      <c r="E29" s="8">
-        <v>2</v>
-      </c>
-      <c r="F29" s="8">
-        <v>4</v>
-      </c>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8">
-        <v>4</v>
-      </c>
-      <c r="I29" s="8">
-        <v>1</v>
-      </c>
-      <c r="J29" s="8">
-        <v>4</v>
-      </c>
-      <c r="K29" s="8">
-        <f t="shared" si="0"/>
-        <v>8.5</v>
-      </c>
-      <c r="L29" s="8">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="M29" s="9">
-        <f t="shared" si="2"/>
-        <v>42.5</v>
-      </c>
-      <c r="N29" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="6">
-        <v>183014046</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="8">
-        <v>3</v>
-      </c>
-      <c r="D30" s="8">
-        <v>8</v>
-      </c>
-      <c r="E30" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="F30" s="8">
-        <v>4</v>
-      </c>
-      <c r="G30" s="8">
-        <v>1</v>
-      </c>
-      <c r="H30" s="8">
-        <v>4</v>
-      </c>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8">
-        <v>4</v>
-      </c>
-      <c r="K30" s="8">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="L30" s="8">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="M30" s="9">
-        <f t="shared" si="2"/>
-        <v>27.500000000000004</v>
-      </c>
-      <c r="N30" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="6">
-        <v>183014050</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" s="8">
-        <v>3</v>
-      </c>
-      <c r="D31" s="8">
-        <v>8</v>
-      </c>
-      <c r="E31" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="F31" s="8">
-        <v>4</v>
-      </c>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8">
-        <v>4</v>
-      </c>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8">
-        <v>4</v>
-      </c>
-      <c r="K31" s="8">
-        <f t="shared" si="0"/>
-        <v>4.5</v>
-      </c>
-      <c r="L31" s="8">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="M31" s="9">
-        <f t="shared" si="2"/>
-        <v>22.5</v>
-      </c>
-      <c r="N31" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="6">
-        <v>183014052</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="8">
-        <v>3</v>
-      </c>
-      <c r="D32" s="8">
-        <v>8</v>
-      </c>
-      <c r="E32" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="F32" s="8">
-        <v>4</v>
-      </c>
-      <c r="G32" s="8">
-        <v>1</v>
-      </c>
-      <c r="H32" s="8">
-        <v>4</v>
-      </c>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8">
-        <v>4</v>
-      </c>
-      <c r="K32" s="8">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-      <c r="L32" s="8">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="M32" s="9">
-        <f t="shared" si="2"/>
-        <v>27.500000000000004</v>
-      </c>
-      <c r="N32" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="6">
-        <v>183014056</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="8">
-        <v>1</v>
-      </c>
-      <c r="D33" s="8">
-        <v>8</v>
-      </c>
-      <c r="E33" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="F33" s="8">
-        <v>4</v>
-      </c>
-      <c r="G33" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="H33" s="8">
-        <v>4</v>
-      </c>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8">
-        <v>4</v>
-      </c>
-      <c r="K33" s="8">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="L33" s="8">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="M33" s="9">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="N33" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="6">
-        <v>183014057</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" s="8">
-        <v>2.5</v>
-      </c>
-      <c r="D34" s="8">
-        <v>8</v>
-      </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8">
-        <v>4</v>
-      </c>
-      <c r="G34" s="8">
-        <v>3.5</v>
-      </c>
-      <c r="H34" s="8">
-        <v>4</v>
-      </c>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8">
-        <v>4</v>
-      </c>
-      <c r="K34" s="8">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="L34" s="8">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="M34" s="9">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="N34" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="6">
-        <v>183014063</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="D35" s="8">
-        <v>8</v>
-      </c>
-      <c r="E35" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="F35" s="8">
-        <v>4</v>
-      </c>
-      <c r="G35" s="8">
-        <v>2</v>
-      </c>
-      <c r="H35" s="8">
-        <v>4</v>
-      </c>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8">
-        <v>4</v>
-      </c>
-      <c r="K35" s="8">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="L35" s="8">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="M35" s="9">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="N35" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>F</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="11">
-        <v>183014073</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13">
-        <v>8</v>
-      </c>
-      <c r="E36" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="F36" s="13">
-        <v>4</v>
-      </c>
-      <c r="G36" s="13">
-        <v>2</v>
-      </c>
-      <c r="H36" s="13">
-        <v>4</v>
-      </c>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13">
-        <v>4</v>
-      </c>
-      <c r="K36" s="13">
-        <f t="shared" si="0"/>
-        <v>3.5</v>
-      </c>
-      <c r="L36" s="13">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="M36" s="14">
-        <f t="shared" si="2"/>
-        <v>17.5</v>
-      </c>
-      <c r="N36" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v>F</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="C2:C36">
-    <cfRule type="cellIs" dxfId="36" priority="5" operator="greaterThan">
-      <formula>$D$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E36">
-    <cfRule type="cellIs" dxfId="35" priority="4" operator="greaterThan">
-      <formula>$F$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G36">
-    <cfRule type="cellIs" dxfId="34" priority="3" operator="greaterThan">
-      <formula>$H$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I36">
-    <cfRule type="cellIs" dxfId="33" priority="2" operator="greaterThan">
-      <formula>$J$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N36">
     <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
@@ -7186,21 +6959,1680 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:N36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="13" width="14.7109375" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15.95" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1">
+      <c r="A2" s="6">
+        <v>153014012</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8">
+        <v>8</v>
+      </c>
+      <c r="E2" s="8">
+        <v>3</v>
+      </c>
+      <c r="F2" s="8">
+        <v>4</v>
+      </c>
+      <c r="G2" s="8">
+        <v>1</v>
+      </c>
+      <c r="H2" s="8">
+        <v>4</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8">
+        <v>4</v>
+      </c>
+      <c r="K2" s="8">
+        <f t="shared" ref="K2:K36" si="0">C2+E2+G2+I2</f>
+        <v>4</v>
+      </c>
+      <c r="L2" s="8">
+        <f t="shared" ref="L2:L36" si="1">D2+F2+H2+J2</f>
+        <v>20</v>
+      </c>
+      <c r="M2" s="9">
+        <f>(K2/L2)*100</f>
+        <v>20</v>
+      </c>
+      <c r="N2" s="10" t="str">
+        <f>IF(M2&gt;94,"A+",IF(M2&gt;84,"A",IF(M2&gt;79,"A-",IF(M2&gt;74,"B+",IF(M2&gt;69,"B",IF(M2&gt;64,"B-",IF(M2&gt;59,"C+",IF(M2&gt;54,"C",IF(M2&gt;49,"D","F")))))))))</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="6">
+        <v>171014081</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8">
+        <v>8</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8">
+        <v>4</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8">
+        <v>4</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8">
+        <v>4</v>
+      </c>
+      <c r="K3" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L3" s="8">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="M3" s="9">
+        <f t="shared" ref="M3:M36" si="2">(K3/L3)*100</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="10" t="str">
+        <f t="shared" ref="N3:N36" si="3">IF(M3&gt;94,"A+",IF(M3&gt;84,"A",IF(M3&gt;79,"A-",IF(M3&gt;74,"B+",IF(M3&gt;69,"B",IF(M3&gt;64,"B-",IF(M3&gt;59,"C+",IF(M3&gt;54,"C",IF(M3&gt;49,"D","F")))))))))</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="6">
+        <v>173014009</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="8">
+        <v>2</v>
+      </c>
+      <c r="D4" s="8">
+        <v>8</v>
+      </c>
+      <c r="E4" s="8">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8">
+        <v>4</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8">
+        <v>4</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8">
+        <v>4</v>
+      </c>
+      <c r="K4" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L4" s="8">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="M4" s="9">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="N4" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="6">
+        <v>173014029</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8">
+        <v>8</v>
+      </c>
+      <c r="E5" s="8">
+        <v>2</v>
+      </c>
+      <c r="F5" s="8">
+        <v>4</v>
+      </c>
+      <c r="G5" s="8">
+        <v>2</v>
+      </c>
+      <c r="H5" s="8">
+        <v>4</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8">
+        <v>4</v>
+      </c>
+      <c r="K5" s="8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L5" s="8">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="M5" s="9">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="N5" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="6">
+        <v>181014002</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="8">
+        <v>2</v>
+      </c>
+      <c r="D6" s="8">
+        <v>8</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="F6" s="8">
+        <v>4</v>
+      </c>
+      <c r="G6" s="8">
+        <v>1</v>
+      </c>
+      <c r="H6" s="8">
+        <v>4</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8">
+        <v>4</v>
+      </c>
+      <c r="K6" s="8">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="L6" s="8">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="M6" s="9">
+        <f t="shared" si="2"/>
+        <v>22.5</v>
+      </c>
+      <c r="N6" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="6">
+        <v>181014008</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8">
+        <v>8</v>
+      </c>
+      <c r="E7" s="8">
+        <v>2</v>
+      </c>
+      <c r="F7" s="8">
+        <v>4</v>
+      </c>
+      <c r="G7" s="8">
+        <v>2</v>
+      </c>
+      <c r="H7" s="8">
+        <v>4</v>
+      </c>
+      <c r="I7" s="8">
+        <v>1</v>
+      </c>
+      <c r="J7" s="8">
+        <v>4</v>
+      </c>
+      <c r="K7" s="8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L7" s="8">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="M7" s="9">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="N7" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="6">
+        <v>181014025</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="8">
+        <v>8</v>
+      </c>
+      <c r="E8" s="8">
+        <v>2</v>
+      </c>
+      <c r="F8" s="8">
+        <v>4</v>
+      </c>
+      <c r="G8" s="8">
+        <v>2</v>
+      </c>
+      <c r="H8" s="8">
+        <v>4</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8">
+        <v>4</v>
+      </c>
+      <c r="K8" s="8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L8" s="8">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="M8" s="9">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="N8" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="6">
+        <v>181014032</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8">
+        <v>8</v>
+      </c>
+      <c r="E9" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="F9" s="8">
+        <v>4</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8">
+        <v>4</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8">
+        <v>4</v>
+      </c>
+      <c r="K9" s="8">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="L9" s="8">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="M9" s="9">
+        <f t="shared" si="2"/>
+        <v>7.5</v>
+      </c>
+      <c r="N9" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="6">
+        <v>181014057</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="8">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8">
+        <v>8</v>
+      </c>
+      <c r="E10" s="8">
+        <v>1</v>
+      </c>
+      <c r="F10" s="8">
+        <v>4</v>
+      </c>
+      <c r="G10" s="8">
+        <v>2</v>
+      </c>
+      <c r="H10" s="8">
+        <v>4</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8">
+        <v>4</v>
+      </c>
+      <c r="K10" s="8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L10" s="8">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="M10" s="9">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="N10" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="6">
+        <v>181014060</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="8">
+        <v>3</v>
+      </c>
+      <c r="D11" s="8">
+        <v>8</v>
+      </c>
+      <c r="E11" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="F11" s="8">
+        <v>4</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8">
+        <v>4</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8">
+        <v>4</v>
+      </c>
+      <c r="K11" s="8">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="L11" s="8">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="M11" s="9">
+        <f t="shared" si="2"/>
+        <v>27.500000000000004</v>
+      </c>
+      <c r="N11" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="6">
+        <v>181014131</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8">
+        <v>8</v>
+      </c>
+      <c r="E12" s="8">
+        <v>3</v>
+      </c>
+      <c r="F12" s="8">
+        <v>4</v>
+      </c>
+      <c r="G12" s="8">
+        <v>1</v>
+      </c>
+      <c r="H12" s="8">
+        <v>4</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8">
+        <v>4</v>
+      </c>
+      <c r="K12" s="8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L12" s="8">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="M12" s="9">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="N12" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="6">
+        <v>182014030</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="8">
+        <v>4</v>
+      </c>
+      <c r="D13" s="8">
+        <v>8</v>
+      </c>
+      <c r="E13" s="8">
+        <v>2</v>
+      </c>
+      <c r="F13" s="8">
+        <v>4</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8">
+        <v>4</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8">
+        <v>4</v>
+      </c>
+      <c r="K13" s="8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L13" s="8">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="M13" s="9">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="N13" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="6">
+        <v>182014052</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="D14" s="8">
+        <v>8</v>
+      </c>
+      <c r="E14" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="F14" s="8">
+        <v>4</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8">
+        <v>4</v>
+      </c>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8">
+        <v>4</v>
+      </c>
+      <c r="K14" s="8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="L14" s="8">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="M14" s="9">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="N14" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="6">
+        <v>182014055</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="8">
+        <v>5</v>
+      </c>
+      <c r="D15" s="8">
+        <v>8</v>
+      </c>
+      <c r="E15" s="8">
+        <v>3</v>
+      </c>
+      <c r="F15" s="8">
+        <v>4</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8">
+        <v>4</v>
+      </c>
+      <c r="I15" s="8">
+        <v>1</v>
+      </c>
+      <c r="J15" s="8">
+        <v>4</v>
+      </c>
+      <c r="K15" s="8">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="L15" s="8">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="M15" s="9">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="N15" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="6">
+        <v>182014061</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8">
+        <v>8</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="F16" s="8">
+        <v>4</v>
+      </c>
+      <c r="G16" s="8">
+        <v>4</v>
+      </c>
+      <c r="H16" s="8">
+        <v>4</v>
+      </c>
+      <c r="I16" s="8">
+        <v>1</v>
+      </c>
+      <c r="J16" s="8">
+        <v>4</v>
+      </c>
+      <c r="K16" s="8">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+      <c r="L16" s="8">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="M16" s="9">
+        <f t="shared" si="2"/>
+        <v>32.5</v>
+      </c>
+      <c r="N16" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="6">
+        <v>182014069</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="8">
+        <v>1</v>
+      </c>
+      <c r="D17" s="8">
+        <v>8</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="F17" s="8">
+        <v>4</v>
+      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8">
+        <v>4</v>
+      </c>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8">
+        <v>4</v>
+      </c>
+      <c r="K17" s="8">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="L17" s="8">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="M17" s="9">
+        <f t="shared" si="2"/>
+        <v>12.5</v>
+      </c>
+      <c r="N17" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="6">
+        <v>182014071</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8">
+        <v>8</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1</v>
+      </c>
+      <c r="F18" s="8">
+        <v>4</v>
+      </c>
+      <c r="G18" s="8">
+        <v>1</v>
+      </c>
+      <c r="H18" s="8">
+        <v>4</v>
+      </c>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8">
+        <v>4</v>
+      </c>
+      <c r="K18" s="8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="L18" s="8">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="M18" s="9">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="N18" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="6">
+        <v>183014002</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="8">
+        <v>3</v>
+      </c>
+      <c r="D19" s="8">
+        <v>8</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="F19" s="8">
+        <v>4</v>
+      </c>
+      <c r="G19" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="H19" s="8">
+        <v>4</v>
+      </c>
+      <c r="I19" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="J19" s="8">
+        <v>4</v>
+      </c>
+      <c r="K19" s="8">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="L19" s="8">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="M19" s="9">
+        <f t="shared" si="2"/>
+        <v>37.5</v>
+      </c>
+      <c r="N19" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="6">
+        <v>183014004</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8">
+        <v>8</v>
+      </c>
+      <c r="E20" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="F20" s="8">
+        <v>4</v>
+      </c>
+      <c r="G20" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="H20" s="8">
+        <v>4</v>
+      </c>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8">
+        <v>4</v>
+      </c>
+      <c r="K20" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L20" s="8">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="M20" s="9">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="N20" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="6">
+        <v>183014007</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="D21" s="8">
+        <v>8</v>
+      </c>
+      <c r="E21" s="8">
+        <v>4</v>
+      </c>
+      <c r="F21" s="8">
+        <v>4</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8">
+        <v>4</v>
+      </c>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8">
+        <v>4</v>
+      </c>
+      <c r="K21" s="8">
+        <f t="shared" si="0"/>
+        <v>10.5</v>
+      </c>
+      <c r="L21" s="8">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="M21" s="9">
+        <f t="shared" si="2"/>
+        <v>52.5</v>
+      </c>
+      <c r="N21" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="6">
+        <v>183014009</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="8">
+        <v>8</v>
+      </c>
+      <c r="D22" s="8">
+        <v>8</v>
+      </c>
+      <c r="E22" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="F22" s="8">
+        <v>4</v>
+      </c>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8">
+        <v>4</v>
+      </c>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8">
+        <v>4</v>
+      </c>
+      <c r="K22" s="8">
+        <f t="shared" si="0"/>
+        <v>9.5</v>
+      </c>
+      <c r="L22" s="8">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="M22" s="9">
+        <f t="shared" si="2"/>
+        <v>47.5</v>
+      </c>
+      <c r="N22" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="6">
+        <v>183014012</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="8">
+        <v>2</v>
+      </c>
+      <c r="D23" s="8">
+        <v>8</v>
+      </c>
+      <c r="E23" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="F23" s="8">
+        <v>4</v>
+      </c>
+      <c r="G23" s="8">
+        <v>1</v>
+      </c>
+      <c r="H23" s="8">
+        <v>4</v>
+      </c>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8">
+        <v>4</v>
+      </c>
+      <c r="K23" s="8">
+        <f t="shared" si="0"/>
+        <v>6.5</v>
+      </c>
+      <c r="L23" s="8">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="M23" s="9">
+        <f t="shared" si="2"/>
+        <v>32.5</v>
+      </c>
+      <c r="N23" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="6">
+        <v>183014014</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="8">
+        <v>1</v>
+      </c>
+      <c r="D24" s="8">
+        <v>8</v>
+      </c>
+      <c r="E24" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="F24" s="8">
+        <v>4</v>
+      </c>
+      <c r="G24" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="H24" s="8">
+        <v>4</v>
+      </c>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8">
+        <v>4</v>
+      </c>
+      <c r="K24" s="8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L24" s="8">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="M24" s="9">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="N24" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="6">
+        <v>183014017</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="8">
+        <v>8</v>
+      </c>
+      <c r="D25" s="8">
+        <v>8</v>
+      </c>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8">
+        <v>4</v>
+      </c>
+      <c r="G25" s="8">
+        <v>4</v>
+      </c>
+      <c r="H25" s="8">
+        <v>4</v>
+      </c>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8">
+        <v>4</v>
+      </c>
+      <c r="K25" s="8">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="L25" s="8">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="M25" s="9">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="N25" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>C+</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="6">
+        <v>183014024</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="8">
+        <v>1</v>
+      </c>
+      <c r="D26" s="8">
+        <v>8</v>
+      </c>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8">
+        <v>4</v>
+      </c>
+      <c r="G26" s="8">
+        <v>3</v>
+      </c>
+      <c r="H26" s="8">
+        <v>4</v>
+      </c>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8">
+        <v>4</v>
+      </c>
+      <c r="K26" s="8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L26" s="8">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="M26" s="9">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="N26" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="6">
+        <v>183014029</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="8">
+        <v>1</v>
+      </c>
+      <c r="D27" s="8">
+        <v>8</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8">
+        <v>4</v>
+      </c>
+      <c r="G27" s="8">
+        <v>0</v>
+      </c>
+      <c r="H27" s="8">
+        <v>4</v>
+      </c>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8">
+        <v>4</v>
+      </c>
+      <c r="K27" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L27" s="8">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="M27" s="9">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="N27" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="6">
+        <v>183014031</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="8">
+        <v>2</v>
+      </c>
+      <c r="D28" s="8">
+        <v>8</v>
+      </c>
+      <c r="E28" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="F28" s="8">
+        <v>4</v>
+      </c>
+      <c r="G28" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="H28" s="8">
+        <v>4</v>
+      </c>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8">
+        <v>4</v>
+      </c>
+      <c r="K28" s="8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="L28" s="8">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="M28" s="9">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="N28" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="6">
+        <v>183014035</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="D29" s="8">
+        <v>8</v>
+      </c>
+      <c r="E29" s="8">
+        <v>2</v>
+      </c>
+      <c r="F29" s="8">
+        <v>4</v>
+      </c>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8">
+        <v>4</v>
+      </c>
+      <c r="I29" s="8">
+        <v>1</v>
+      </c>
+      <c r="J29" s="8">
+        <v>4</v>
+      </c>
+      <c r="K29" s="8">
+        <f t="shared" si="0"/>
+        <v>8.5</v>
+      </c>
+      <c r="L29" s="8">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="M29" s="9">
+        <f t="shared" si="2"/>
+        <v>42.5</v>
+      </c>
+      <c r="N29" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="6">
+        <v>183014046</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="8">
+        <v>3</v>
+      </c>
+      <c r="D30" s="8">
+        <v>8</v>
+      </c>
+      <c r="E30" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="F30" s="8">
+        <v>4</v>
+      </c>
+      <c r="G30" s="8">
+        <v>1</v>
+      </c>
+      <c r="H30" s="8">
+        <v>4</v>
+      </c>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8">
+        <v>4</v>
+      </c>
+      <c r="K30" s="8">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="L30" s="8">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="M30" s="9">
+        <f t="shared" si="2"/>
+        <v>27.500000000000004</v>
+      </c>
+      <c r="N30" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="6">
+        <v>183014050</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="8">
+        <v>3</v>
+      </c>
+      <c r="D31" s="8">
+        <v>8</v>
+      </c>
+      <c r="E31" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="F31" s="8">
+        <v>4</v>
+      </c>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8">
+        <v>4</v>
+      </c>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8">
+        <v>4</v>
+      </c>
+      <c r="K31" s="8">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="L31" s="8">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="M31" s="9">
+        <f t="shared" si="2"/>
+        <v>22.5</v>
+      </c>
+      <c r="N31" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="6">
+        <v>183014052</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="8">
+        <v>3</v>
+      </c>
+      <c r="D32" s="8">
+        <v>8</v>
+      </c>
+      <c r="E32" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="F32" s="8">
+        <v>4</v>
+      </c>
+      <c r="G32" s="8">
+        <v>1</v>
+      </c>
+      <c r="H32" s="8">
+        <v>4</v>
+      </c>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8">
+        <v>4</v>
+      </c>
+      <c r="K32" s="8">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+      <c r="L32" s="8">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="M32" s="9">
+        <f t="shared" si="2"/>
+        <v>27.500000000000004</v>
+      </c>
+      <c r="N32" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="6">
+        <v>183014056</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="8">
+        <v>1</v>
+      </c>
+      <c r="D33" s="8">
+        <v>8</v>
+      </c>
+      <c r="E33" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="F33" s="8">
+        <v>4</v>
+      </c>
+      <c r="G33" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="H33" s="8">
+        <v>4</v>
+      </c>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8">
+        <v>4</v>
+      </c>
+      <c r="K33" s="8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L33" s="8">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="M33" s="9">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="N33" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="6">
+        <v>183014057</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="D34" s="8">
+        <v>8</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8">
+        <v>4</v>
+      </c>
+      <c r="G34" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="H34" s="8">
+        <v>4</v>
+      </c>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8">
+        <v>4</v>
+      </c>
+      <c r="K34" s="8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L34" s="8">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="M34" s="9">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="N34" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="6">
+        <v>183014063</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="D35" s="8">
+        <v>8</v>
+      </c>
+      <c r="E35" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="F35" s="8">
+        <v>4</v>
+      </c>
+      <c r="G35" s="8">
+        <v>2</v>
+      </c>
+      <c r="H35" s="8">
+        <v>4</v>
+      </c>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8">
+        <v>4</v>
+      </c>
+      <c r="K35" s="8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L35" s="8">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="M35" s="9">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="N35" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A36" s="11">
+        <v>183014073</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13">
+        <v>8</v>
+      </c>
+      <c r="E36" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="F36" s="13">
+        <v>4</v>
+      </c>
+      <c r="G36" s="13">
+        <v>2</v>
+      </c>
+      <c r="H36" s="13">
+        <v>4</v>
+      </c>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13">
+        <v>4</v>
+      </c>
+      <c r="K36" s="13">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="L36" s="13">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="M36" s="14">
+        <f t="shared" si="2"/>
+        <v>17.5</v>
+      </c>
+      <c r="N36" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>F</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2:C36">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="greaterThan">
+      <formula>$D$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E36">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="greaterThan">
+      <formula>$F$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G36">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="greaterThan">
+      <formula>$H$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I36">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="greaterThan">
+      <formula>$J$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2:N36">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" customWidth="1"/>
-    <col min="3" max="14" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="14" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -7244,7 +8676,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14">
       <c r="A2" s="6">
         <v>153014012</v>
       </c>
@@ -7288,7 +8720,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14">
       <c r="A3" s="6">
         <v>171014081</v>
       </c>
@@ -7328,7 +8760,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14">
       <c r="A4" s="6">
         <v>173014009</v>
       </c>
@@ -7368,7 +8800,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14">
       <c r="A5" s="6">
         <v>173014029</v>
       </c>
@@ -7414,7 +8846,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14">
       <c r="A6" s="6">
         <v>181014002</v>
       </c>
@@ -7462,7 +8894,7 @@
         <v>C+</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14">
       <c r="A7" s="6">
         <v>181014008</v>
       </c>
@@ -7502,7 +8934,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14">
       <c r="A8" s="6">
         <v>181014025</v>
       </c>
@@ -7546,7 +8978,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14">
       <c r="A9" s="6">
         <v>181014032</v>
       </c>
@@ -7586,7 +9018,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14">
       <c r="A10" s="6">
         <v>181014057</v>
       </c>
@@ -7626,7 +9058,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14">
       <c r="A11" s="6">
         <v>181014060</v>
       </c>
@@ -7674,7 +9106,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14">
       <c r="A12" s="6">
         <v>181014131</v>
       </c>
@@ -7714,7 +9146,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14">
       <c r="A13" s="6">
         <v>182014030</v>
       </c>
@@ -7760,7 +9192,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14">
       <c r="A14" s="6">
         <v>182014052</v>
       </c>
@@ -7804,7 +9236,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14">
       <c r="A15" s="6">
         <v>182014055</v>
       </c>
@@ -7852,7 +9284,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14">
       <c r="A16" s="6">
         <v>182014061</v>
       </c>
@@ -7892,7 +9324,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14">
       <c r="A17" s="6">
         <v>182014069</v>
       </c>
@@ -7932,7 +9364,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14">
       <c r="A18" s="6">
         <v>182014071</v>
       </c>
@@ -7972,7 +9404,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14">
       <c r="A19" s="6">
         <v>183014002</v>
       </c>
@@ -8020,7 +9452,7 @@
         <v>B+</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14">
       <c r="A20" s="6">
         <v>183014004</v>
       </c>
@@ -8064,7 +9496,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14">
       <c r="A21" s="6">
         <v>183014007</v>
       </c>
@@ -8112,7 +9544,7 @@
         <v>C+</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14">
       <c r="A22" s="6">
         <v>183014009</v>
       </c>
@@ -8160,7 +9592,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14">
       <c r="A23" s="6">
         <v>183014012</v>
       </c>
@@ -8204,7 +9636,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14">
       <c r="A24" s="6">
         <v>183014014</v>
       </c>
@@ -8252,7 +9684,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14">
       <c r="A25" s="6">
         <v>183014017</v>
       </c>
@@ -8300,7 +9732,7 @@
         <v>C+</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14">
       <c r="A26" s="6">
         <v>183014024</v>
       </c>
@@ -8348,7 +9780,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14">
       <c r="A27" s="6">
         <v>183014029</v>
       </c>
@@ -8388,7 +9820,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14">
       <c r="A28" s="6">
         <v>183014031</v>
       </c>
@@ -8436,7 +9868,7 @@
         <v>C+</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14">
       <c r="A29" s="6">
         <v>183014035</v>
       </c>
@@ -8484,7 +9916,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14">
       <c r="A30" s="6">
         <v>183014046</v>
       </c>
@@ -8528,7 +9960,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14">
       <c r="A31" s="6">
         <v>183014050</v>
       </c>
@@ -8576,7 +10008,7 @@
         <v>C+</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14">
       <c r="A32" s="6">
         <v>183014052</v>
       </c>
@@ -8624,7 +10056,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14">
       <c r="A33" s="6">
         <v>183014056</v>
       </c>
@@ -8668,7 +10100,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14">
       <c r="A34" s="6">
         <v>183014057</v>
       </c>
@@ -8716,7 +10148,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14">
       <c r="A35" s="6">
         <v>183014063</v>
       </c>
@@ -8764,7 +10196,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" ht="15.75" thickBot="1">
       <c r="A36" s="11">
         <v>183014073</v>
       </c>
@@ -8840,4 +10272,1040 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" style="16" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" style="16" customWidth="1"/>
+    <col min="3" max="7" width="14.7109375" style="16" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="6">
+        <v>153014012</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="33">
+        <f>VLOOKUP(A2,[1]Sheet1!B$2:C$46,2,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="D2" s="33">
+        <f>VLOOKUP(A2,[1]Sheet1!D$2:E$46,2,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="E2" s="33">
+        <f t="shared" ref="E2:E37" si="0">C2+D2</f>
+        <v>12</v>
+      </c>
+      <c r="F2" s="33">
+        <f>(E2/E$37)*100</f>
+        <v>60</v>
+      </c>
+      <c r="G2" s="34" t="str">
+        <f t="shared" ref="G2:G36" si="1">IF(F2&gt;94,"A+",IF(F2&gt;84,"A",IF(F2&gt;79,"A-",IF(F2&gt;74,"B+",IF(F2&gt;69,"B",IF(F2&gt;64,"B-",IF(F2&gt;59,"C+",IF(F2&gt;54,"C",IF(F2&gt;49,"D","F")))))))))</f>
+        <v>C+</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="6">
+        <v>171014081</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="33">
+        <f>VLOOKUP(A3,[1]Sheet1!B$2:C$46,2,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="D3" s="33">
+        <f>VLOOKUP(A3,[1]Sheet1!D$2:E$46,2,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="E3" s="33">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F3" s="33">
+        <f>(E3/E$37)*100</f>
+        <v>60</v>
+      </c>
+      <c r="G3" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>C+</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="6">
+        <v>173014009</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="33">
+        <f>VLOOKUP(A4,[1]Sheet1!B$2:C$46,2,FALSE)</f>
+        <v>9.5</v>
+      </c>
+      <c r="D4" s="33">
+        <f>VLOOKUP(A4,[1]Sheet1!D$2:E$46,2,FALSE)</f>
+        <v>9.5</v>
+      </c>
+      <c r="E4" s="33">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="F4" s="33">
+        <f>(E4/E$37)*100</f>
+        <v>95</v>
+      </c>
+      <c r="G4" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>A+</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="6">
+        <v>173014029</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="33">
+        <f>VLOOKUP(A5,[1]Sheet1!B$2:C$46,2,FALSE)</f>
+        <v>7.5</v>
+      </c>
+      <c r="D5" s="33">
+        <f>VLOOKUP(A5,[1]Sheet1!D$2:E$46,2,FALSE)</f>
+        <v>6.5</v>
+      </c>
+      <c r="E5" s="33">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="F5" s="33">
+        <f>(E5/E$37)*100</f>
+        <v>70</v>
+      </c>
+      <c r="G5" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="6">
+        <v>181014002</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="33">
+        <f>VLOOKUP(A6,[1]Sheet1!B$2:C$46,2,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="D6" s="33">
+        <f>VLOOKUP(A6,[1]Sheet1!D$2:E$46,2,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="E6" s="33">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="F6" s="33">
+        <f>(E6/E$37)*100</f>
+        <v>85</v>
+      </c>
+      <c r="G6" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="6">
+        <v>181014008</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="33">
+        <f>VLOOKUP(A7,[1]Sheet1!B$2:C$46,2,FALSE)</f>
+        <v>7.5</v>
+      </c>
+      <c r="D7" s="33">
+        <f>VLOOKUP(A7,[1]Sheet1!D$2:E$46,2,FALSE)</f>
+        <v>6.5</v>
+      </c>
+      <c r="E7" s="33">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="F7" s="33">
+        <f>(E7/E$37)*100</f>
+        <v>70</v>
+      </c>
+      <c r="G7" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="6">
+        <v>181014025</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="33">
+        <f>VLOOKUP(A8,[1]Sheet1!B$2:C$46,2,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="D8" s="33">
+        <f>VLOOKUP(A8,[1]Sheet1!D$2:E$46,2,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="E8" s="33">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F8" s="33">
+        <f>(E8/E$37)*100</f>
+        <v>60</v>
+      </c>
+      <c r="G8" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>C+</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="6">
+        <v>181014032</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="33">
+        <f>VLOOKUP(A9,[1]Sheet1!B$2:C$46,2,FALSE)</f>
+        <v>9.5</v>
+      </c>
+      <c r="D9" s="33">
+        <f>VLOOKUP(A9,[1]Sheet1!D$2:E$46,2,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="E9" s="33">
+        <f t="shared" si="0"/>
+        <v>17.5</v>
+      </c>
+      <c r="F9" s="33">
+        <f>(E9/E$37)*100</f>
+        <v>87.5</v>
+      </c>
+      <c r="G9" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="6">
+        <v>181014057</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="33">
+        <f>VLOOKUP(A10,[1]Sheet1!B$2:C$46,2,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="D10" s="33">
+        <f>VLOOKUP(A10,[1]Sheet1!D$2:E$46,2,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="E10" s="33">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F10" s="33">
+        <f>(E10/E$37)*100</f>
+        <v>60</v>
+      </c>
+      <c r="G10" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>C+</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="6">
+        <v>181014060</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="33">
+        <f>VLOOKUP(A11,[1]Sheet1!B$2:C$46,2,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="D11" s="33">
+        <f>VLOOKUP(A11,[1]Sheet1!D$2:E$46,2,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="E11" s="33">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F11" s="33">
+        <f>(E11/E$37)*100</f>
+        <v>60</v>
+      </c>
+      <c r="G11" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>C+</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="6">
+        <v>181014131</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="33">
+        <f>VLOOKUP(A12,[1]Sheet1!B$2:C$46,2,FALSE)</f>
+        <v>9.5</v>
+      </c>
+      <c r="D12" s="33">
+        <f>VLOOKUP(A12,[1]Sheet1!D$2:E$46,2,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="E12" s="33">
+        <f t="shared" si="0"/>
+        <v>18.5</v>
+      </c>
+      <c r="F12" s="33">
+        <f>(E12/E$37)*100</f>
+        <v>92.5</v>
+      </c>
+      <c r="G12" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="6">
+        <v>182014030</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="33">
+        <f>VLOOKUP(A13,[1]Sheet1!B$2:C$46,2,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="D13" s="33">
+        <f>VLOOKUP(A13,[1]Sheet1!D$2:E$46,2,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="E13" s="33">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F13" s="33">
+        <f>(E13/E$37)*100</f>
+        <v>60</v>
+      </c>
+      <c r="G13" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>C+</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="6">
+        <v>182014052</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="33">
+        <f>VLOOKUP(A14,[1]Sheet1!B$2:C$46,2,FALSE)</f>
+        <v>9.5</v>
+      </c>
+      <c r="D14" s="33">
+        <f>VLOOKUP(A14,[1]Sheet1!D$2:E$46,2,FALSE)</f>
+        <v>8.5</v>
+      </c>
+      <c r="E14" s="33">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F14" s="33">
+        <f>(E14/E$37)*100</f>
+        <v>90</v>
+      </c>
+      <c r="G14" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="6">
+        <v>182014055</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="33">
+        <f>VLOOKUP(A15,[1]Sheet1!B$2:C$46,2,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="D15" s="33">
+        <f>VLOOKUP(A15,[1]Sheet1!D$2:E$46,2,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="E15" s="33">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="F15" s="33">
+        <f>(E15/E$37)*100</f>
+        <v>85</v>
+      </c>
+      <c r="G15" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="6">
+        <v>182014061</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="33">
+        <f>VLOOKUP(A16,[1]Sheet1!B$2:C$46,2,FALSE)</f>
+        <v>9.5</v>
+      </c>
+      <c r="D16" s="33">
+        <f>VLOOKUP(A16,[1]Sheet1!D$2:E$46,2,FALSE)</f>
+        <v>8.5</v>
+      </c>
+      <c r="E16" s="33">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F16" s="33">
+        <f>(E16/E$37)*100</f>
+        <v>90</v>
+      </c>
+      <c r="G16" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="6">
+        <v>182014069</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="33">
+        <f>VLOOKUP(A17,[1]Sheet1!B$2:C$46,2,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="D17" s="33">
+        <f>VLOOKUP(A17,[1]Sheet1!D$2:E$46,2,FALSE)</f>
+        <v>8.5</v>
+      </c>
+      <c r="E17" s="33">
+        <f t="shared" si="0"/>
+        <v>17.5</v>
+      </c>
+      <c r="F17" s="33">
+        <f>(E17/E$37)*100</f>
+        <v>87.5</v>
+      </c>
+      <c r="G17" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="6">
+        <v>182014071</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="33">
+        <f>VLOOKUP(A18,[1]Sheet1!B$2:C$46,2,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="D18" s="33">
+        <f>VLOOKUP(A18,[1]Sheet1!D$2:E$46,2,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="E18" s="33">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F18" s="33">
+        <f>(E18/E$37)*100</f>
+        <v>60</v>
+      </c>
+      <c r="G18" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>C+</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="6">
+        <v>183014002</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="33">
+        <f>VLOOKUP(A19,[1]Sheet1!B$2:C$46,2,FALSE)</f>
+        <v>9.5</v>
+      </c>
+      <c r="D19" s="33">
+        <f>VLOOKUP(A19,[1]Sheet1!D$2:E$46,2,FALSE)</f>
+        <v>9.5</v>
+      </c>
+      <c r="E19" s="33">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="F19" s="33">
+        <f>(E19/E$37)*100</f>
+        <v>95</v>
+      </c>
+      <c r="G19" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>A+</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="6">
+        <v>183014004</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="33">
+        <f>VLOOKUP(A20,[1]Sheet1!B$2:C$46,2,FALSE)</f>
+        <v>9.5</v>
+      </c>
+      <c r="D20" s="33">
+        <f>VLOOKUP(A20,[1]Sheet1!D$2:E$46,2,FALSE)</f>
+        <v>9.5</v>
+      </c>
+      <c r="E20" s="33">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="F20" s="33">
+        <f>(E20/E$37)*100</f>
+        <v>95</v>
+      </c>
+      <c r="G20" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>A+</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="6">
+        <v>183014007</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="33">
+        <f>VLOOKUP(A21,[1]Sheet1!B$2:C$46,2,FALSE)</f>
+        <v>9.5</v>
+      </c>
+      <c r="D21" s="33">
+        <f>VLOOKUP(A21,[1]Sheet1!D$2:E$46,2,FALSE)</f>
+        <v>9.5</v>
+      </c>
+      <c r="E21" s="33">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="F21" s="33">
+        <f>(E21/E$37)*100</f>
+        <v>95</v>
+      </c>
+      <c r="G21" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>A+</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="6">
+        <v>183014009</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="33">
+        <f>VLOOKUP(A22,[1]Sheet1!B$2:C$46,2,FALSE)</f>
+        <v>9.5</v>
+      </c>
+      <c r="D22" s="33">
+        <f>VLOOKUP(A22,[1]Sheet1!D$2:E$46,2,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="E22" s="33">
+        <f t="shared" si="0"/>
+        <v>18.5</v>
+      </c>
+      <c r="F22" s="33">
+        <f>(E22/E$37)*100</f>
+        <v>92.5</v>
+      </c>
+      <c r="G22" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="6">
+        <v>183014012</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="33">
+        <f>VLOOKUP(A23,[1]Sheet1!B$2:C$46,2,FALSE)</f>
+        <v>9.5</v>
+      </c>
+      <c r="D23" s="33">
+        <f>VLOOKUP(A23,[1]Sheet1!D$2:E$46,2,FALSE)</f>
+        <v>9.5</v>
+      </c>
+      <c r="E23" s="33">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="F23" s="33">
+        <f>(E23/E$37)*100</f>
+        <v>95</v>
+      </c>
+      <c r="G23" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>A+</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="6">
+        <v>183014014</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="33">
+        <f>VLOOKUP(A24,[1]Sheet1!B$2:C$46,2,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="D24" s="33">
+        <f>VLOOKUP(A24,[1]Sheet1!D$2:E$46,2,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="E24" s="33">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="F24" s="33">
+        <f>(E24/E$37)*100</f>
+        <v>85</v>
+      </c>
+      <c r="G24" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="6">
+        <v>183014017</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="33">
+        <f>VLOOKUP(A25,[1]Sheet1!B$2:C$46,2,FALSE)</f>
+        <v>9.5</v>
+      </c>
+      <c r="D25" s="33">
+        <f>VLOOKUP(A25,[1]Sheet1!D$2:E$46,2,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="E25" s="33">
+        <f t="shared" si="0"/>
+        <v>17.5</v>
+      </c>
+      <c r="F25" s="33">
+        <f>(E25/E$37)*100</f>
+        <v>87.5</v>
+      </c>
+      <c r="G25" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="6">
+        <v>183014024</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="33">
+        <f>VLOOKUP(A26,[1]Sheet1!B$2:C$46,2,FALSE)</f>
+        <v>7.5</v>
+      </c>
+      <c r="D26" s="33">
+        <f>VLOOKUP(A26,[1]Sheet1!D$2:E$46,2,FALSE)</f>
+        <v>6.5</v>
+      </c>
+      <c r="E26" s="33">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="F26" s="33">
+        <f>(E26/E$37)*100</f>
+        <v>70</v>
+      </c>
+      <c r="G26" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>B</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="6">
+        <v>183014029</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="33">
+        <f>VLOOKUP(A27,[1]Sheet1!B$2:C$46,2,FALSE)</f>
+        <v>9.5</v>
+      </c>
+      <c r="D27" s="33">
+        <f>VLOOKUP(A27,[1]Sheet1!D$2:E$46,2,FALSE)</f>
+        <v>9.5</v>
+      </c>
+      <c r="E27" s="33">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="F27" s="33">
+        <f>(E27/E$37)*100</f>
+        <v>95</v>
+      </c>
+      <c r="G27" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>A+</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="6">
+        <v>183014031</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="33">
+        <f>VLOOKUP(A28,[1]Sheet1!B$2:C$46,2,FALSE)</f>
+        <v>9.5</v>
+      </c>
+      <c r="D28" s="33">
+        <f>VLOOKUP(A28,[1]Sheet1!D$2:E$46,2,FALSE)</f>
+        <v>8.5</v>
+      </c>
+      <c r="E28" s="33">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F28" s="33">
+        <f>(E28/E$37)*100</f>
+        <v>90</v>
+      </c>
+      <c r="G28" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="6">
+        <v>183014035</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="33">
+        <f>VLOOKUP(A29,[1]Sheet1!B$2:C$46,2,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="D29" s="33">
+        <f>VLOOKUP(A29,[1]Sheet1!D$2:E$46,2,FALSE)</f>
+        <v>8.5</v>
+      </c>
+      <c r="E29" s="33">
+        <f t="shared" si="0"/>
+        <v>17.5</v>
+      </c>
+      <c r="F29" s="33">
+        <f>(E29/E$37)*100</f>
+        <v>87.5</v>
+      </c>
+      <c r="G29" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="6">
+        <v>183014046</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="33">
+        <f>VLOOKUP(A30,[1]Sheet1!B$2:C$46,2,FALSE)</f>
+        <v>9.5</v>
+      </c>
+      <c r="D30" s="33">
+        <f>VLOOKUP(A30,[1]Sheet1!D$2:E$46,2,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="E30" s="33">
+        <f t="shared" si="0"/>
+        <v>18.5</v>
+      </c>
+      <c r="F30" s="33">
+        <f>(E30/E$37)*100</f>
+        <v>92.5</v>
+      </c>
+      <c r="G30" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="6">
+        <v>183014050</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="33">
+        <f>VLOOKUP(A31,[1]Sheet1!B$2:C$46,2,FALSE)</f>
+        <v>9.5</v>
+      </c>
+      <c r="D31" s="33">
+        <f>VLOOKUP(A31,[1]Sheet1!D$2:E$46,2,FALSE)</f>
+        <v>9.5</v>
+      </c>
+      <c r="E31" s="33">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="F31" s="33">
+        <f>(E31/E$37)*100</f>
+        <v>95</v>
+      </c>
+      <c r="G31" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>A+</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="6">
+        <v>183014052</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="33">
+        <f>VLOOKUP(A32,[1]Sheet1!B$2:C$46,2,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="D32" s="33">
+        <f>VLOOKUP(A32,[1]Sheet1!D$2:E$46,2,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="E32" s="33">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="F32" s="33">
+        <f>(E32/E$37)*100</f>
+        <v>85</v>
+      </c>
+      <c r="G32" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="6">
+        <v>183014056</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="33">
+        <f>VLOOKUP(A33,[1]Sheet1!B$2:C$46,2,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="D33" s="33">
+        <f>VLOOKUP(A33,[1]Sheet1!D$2:E$46,2,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="E33" s="33">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="F33" s="33">
+        <f>(E33/E$37)*100</f>
+        <v>85</v>
+      </c>
+      <c r="G33" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="6">
+        <v>183014057</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="33">
+        <f>VLOOKUP(A34,[1]Sheet1!B$2:C$46,2,FALSE)</f>
+        <v>9.5</v>
+      </c>
+      <c r="D34" s="33">
+        <f>VLOOKUP(A34,[1]Sheet1!D$2:E$46,2,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="E34" s="33">
+        <f t="shared" si="0"/>
+        <v>17.5</v>
+      </c>
+      <c r="F34" s="33">
+        <f>(E34/E$37)*100</f>
+        <v>87.5</v>
+      </c>
+      <c r="G34" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="6">
+        <v>183014063</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="33">
+        <f>VLOOKUP(A35,[1]Sheet1!B$2:C$46,2,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="D35" s="33">
+        <f>VLOOKUP(A35,[1]Sheet1!D$2:E$46,2,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="E35" s="33">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="F35" s="33">
+        <f>(E35/E$37)*100</f>
+        <v>85</v>
+      </c>
+      <c r="G35" s="34" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A36" s="11">
+        <v>183014073</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="35">
+        <f>VLOOKUP(A36,[1]Sheet1!B$2:C$46,2,FALSE)</f>
+        <v>9</v>
+      </c>
+      <c r="D36" s="35">
+        <f>VLOOKUP(A36,[1]Sheet1!D$2:E$46,2,FALSE)</f>
+        <v>8.5</v>
+      </c>
+      <c r="E36" s="35">
+        <f t="shared" si="0"/>
+        <v>17.5</v>
+      </c>
+      <c r="F36" s="35">
+        <f>(E36/E$37)*100</f>
+        <v>87.5</v>
+      </c>
+      <c r="G36" s="36" t="str">
+        <f t="shared" si="1"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="C37" s="16">
+        <v>10</v>
+      </c>
+      <c r="D37" s="16">
+        <v>10</v>
+      </c>
+      <c r="E37" s="33">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/FALL 19/CSE 208/results_cse208_sec2.xlsx
+++ b/FALL 19/CSE 208/results_cse208_sec2.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A972BE1A-2922-4063-9CD9-9AC9AA537BA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="21840" windowHeight="13740" activeTab="6"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attendance" sheetId="6" r:id="rId1"/>
@@ -18,7 +19,7 @@
   <externalReferences>
     <externalReference r:id="rId8"/>
   </externalReferences>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -222,8 +223,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -461,7 +462,7 @@
   <cellStyles count="3">
     <cellStyle name="60% - Accent1" xfId="1" builtinId="32"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="20">
     <dxf>
@@ -680,7 +681,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1230,7 +1231,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1262,9 +1263,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1296,6 +1315,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1471,22 +1508,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="16" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" style="16" customWidth="1"/>
-    <col min="3" max="8" width="14.7109375" style="16" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="1" width="14.6640625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" style="16" customWidth="1"/>
+    <col min="3" max="8" width="14.6640625" style="16" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1512,7 +1549,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>153014012</v>
       </c>
@@ -1542,7 +1579,7 @@
         <v>C+</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>171014081</v>
       </c>
@@ -1572,7 +1609,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>173014009</v>
       </c>
@@ -1602,7 +1639,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>173014029</v>
       </c>
@@ -1632,7 +1669,7 @@
         <v>A-</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>181014002</v>
       </c>
@@ -1662,7 +1699,7 @@
         <v>A-</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>181014008</v>
       </c>
@@ -1692,7 +1729,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>181014025</v>
       </c>
@@ -1722,7 +1759,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>181014032</v>
       </c>
@@ -1752,7 +1789,7 @@
         <v>C+</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>181014057</v>
       </c>
@@ -1782,7 +1819,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>181014060</v>
       </c>
@@ -1812,7 +1849,7 @@
         <v>A-</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>181014131</v>
       </c>
@@ -1842,7 +1879,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>182014030</v>
       </c>
@@ -1872,7 +1909,7 @@
         <v>A+</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>182014052</v>
       </c>
@@ -1902,7 +1939,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>182014055</v>
       </c>
@@ -1932,7 +1969,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>182014061</v>
       </c>
@@ -1962,7 +1999,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>182014069</v>
       </c>
@@ -1992,7 +2029,7 @@
         <v>A-</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>182014071</v>
       </c>
@@ -2022,7 +2059,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>183014002</v>
       </c>
@@ -2052,7 +2089,7 @@
         <v>A+</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>183014004</v>
       </c>
@@ -2082,7 +2119,7 @@
         <v>A+</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>183014007</v>
       </c>
@@ -2112,7 +2149,7 @@
         <v>A+</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>183014009</v>
       </c>
@@ -2142,7 +2179,7 @@
         <v>C+</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>183014012</v>
       </c>
@@ -2172,7 +2209,7 @@
         <v>A+</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>183014014</v>
       </c>
@@ -2202,7 +2239,7 @@
         <v>A+</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>183014017</v>
       </c>
@@ -2232,7 +2269,7 @@
         <v>A+</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>183014024</v>
       </c>
@@ -2262,7 +2299,7 @@
         <v>A+</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>183014029</v>
       </c>
@@ -2292,7 +2329,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>183014031</v>
       </c>
@@ -2322,7 +2359,7 @@
         <v>A+</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>183014035</v>
       </c>
@@ -2352,7 +2389,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>183014046</v>
       </c>
@@ -2382,7 +2419,7 @@
         <v>A+</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>183014050</v>
       </c>
@@ -2412,7 +2449,7 @@
         <v>A+</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>183014052</v>
       </c>
@@ -2442,7 +2479,7 @@
         <v>A-</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>183014056</v>
       </c>
@@ -2472,7 +2509,7 @@
         <v>A+</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>183014057</v>
       </c>
@@ -2502,7 +2539,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>183014063</v>
       </c>
@@ -2532,7 +2569,7 @@
         <v>A+</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15.75" thickBot="1">
+    <row r="36" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="11">
         <v>183014073</v>
       </c>
@@ -2562,7 +2599,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F37" s="16">
         <v>10</v>
       </c>
@@ -2583,22 +2620,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" style="1" customWidth="1"/>
-    <col min="3" max="12" width="14.7109375" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="14.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" style="1" customWidth="1"/>
+    <col min="3" max="12" width="14.6640625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.95" customHeight="1">
+    <row r="1" spans="1:12" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2636,7 +2673,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1">
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>153014012</v>
       </c>
@@ -2678,7 +2715,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1">
+    <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>171014081</v>
       </c>
@@ -2714,7 +2751,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1">
+    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>173014009</v>
       </c>
@@ -2756,7 +2793,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15" customHeight="1">
+    <row r="5" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>173014029</v>
       </c>
@@ -2798,7 +2835,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1">
+    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>181014002</v>
       </c>
@@ -2840,7 +2877,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1">
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>181014008</v>
       </c>
@@ -2876,7 +2913,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1">
+    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>181014025</v>
       </c>
@@ -2912,7 +2949,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1">
+    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>181014032</v>
       </c>
@@ -2948,7 +2985,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15" customHeight="1">
+    <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>181014057</v>
       </c>
@@ -2984,7 +3021,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15" customHeight="1">
+    <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>181014060</v>
       </c>
@@ -3026,7 +3063,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15" customHeight="1">
+    <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>181014131</v>
       </c>
@@ -3062,7 +3099,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15" customHeight="1">
+    <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>182014030</v>
       </c>
@@ -3098,7 +3135,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15" customHeight="1">
+    <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>182014052</v>
       </c>
@@ -3140,7 +3177,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1">
+    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>182014055</v>
       </c>
@@ -3182,7 +3219,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1">
+    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>182014061</v>
       </c>
@@ -3218,7 +3255,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15" customHeight="1">
+    <row r="17" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>182014069</v>
       </c>
@@ -3260,7 +3297,7 @@
         <v>A-</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15" customHeight="1">
+    <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>182014071</v>
       </c>
@@ -3302,7 +3339,7 @@
         <v>B-</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1">
+    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>183014002</v>
       </c>
@@ -3344,7 +3381,7 @@
         <v>A+</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1">
+    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>183014004</v>
       </c>
@@ -3386,7 +3423,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1">
+    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>183014007</v>
       </c>
@@ -3428,7 +3465,7 @@
         <v>A+</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1">
+    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>183014009</v>
       </c>
@@ -3464,7 +3501,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1">
+    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>183014012</v>
       </c>
@@ -3506,7 +3543,7 @@
         <v>A-</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15" customHeight="1">
+    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>183014014</v>
       </c>
@@ -3548,7 +3585,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1">
+    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>183014017</v>
       </c>
@@ -3590,7 +3627,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1">
+    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>183014024</v>
       </c>
@@ -3632,7 +3669,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15" customHeight="1">
+    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>183014029</v>
       </c>
@@ -3668,7 +3705,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15" customHeight="1">
+    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>183014031</v>
       </c>
@@ -3710,7 +3747,7 @@
         <v>A+</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15" customHeight="1">
+    <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>183014035</v>
       </c>
@@ -3752,7 +3789,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15" customHeight="1">
+    <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>183014046</v>
       </c>
@@ -3794,7 +3831,7 @@
         <v>B-</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15" customHeight="1">
+    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>183014050</v>
       </c>
@@ -3836,7 +3873,7 @@
         <v>A+</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15" customHeight="1">
+    <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>183014052</v>
       </c>
@@ -3872,7 +3909,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="15" customHeight="1">
+    <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>183014056</v>
       </c>
@@ -3914,7 +3951,7 @@
         <v>A+</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="15" customHeight="1">
+    <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>183014057</v>
       </c>
@@ -3956,7 +3993,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="15" customHeight="1">
+    <row r="35" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>183014063</v>
       </c>
@@ -3998,7 +4035,7 @@
         <v>A+</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="15" customHeight="1" thickBot="1">
+    <row r="36" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="11">
         <v>183014073</v>
       </c>
@@ -4067,21 +4104,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2:G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="10" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" customWidth="1"/>
+    <col min="3" max="10" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4113,7 +4150,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>153014012</v>
       </c>
@@ -4147,7 +4184,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>171014081</v>
       </c>
@@ -4179,7 +4216,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>173014009</v>
       </c>
@@ -4211,7 +4248,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>173014029</v>
       </c>
@@ -4247,7 +4284,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>181014002</v>
       </c>
@@ -4283,7 +4320,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>181014008</v>
       </c>
@@ -4315,7 +4352,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>181014025</v>
       </c>
@@ -4351,7 +4388,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>181014032</v>
       </c>
@@ -4385,7 +4422,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>181014057</v>
       </c>
@@ -4421,7 +4458,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>181014060</v>
       </c>
@@ -4457,7 +4494,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>181014131</v>
       </c>
@@ -4489,7 +4526,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>182014030</v>
       </c>
@@ -4525,7 +4562,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>182014052</v>
       </c>
@@ -4561,7 +4598,7 @@
         <v>C+</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>182014055</v>
       </c>
@@ -4597,7 +4634,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>182014061</v>
       </c>
@@ -4629,7 +4666,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>182014069</v>
       </c>
@@ -4665,7 +4702,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>182014071</v>
       </c>
@@ -4701,7 +4738,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>183014002</v>
       </c>
@@ -4737,7 +4774,7 @@
         <v>C+</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>183014004</v>
       </c>
@@ -4773,7 +4810,7 @@
         <v>C+</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>183014007</v>
       </c>
@@ -4809,7 +4846,7 @@
         <v>A-</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>183014009</v>
       </c>
@@ -4845,7 +4882,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>183014012</v>
       </c>
@@ -4881,7 +4918,7 @@
         <v>B+</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>183014014</v>
       </c>
@@ -4917,7 +4954,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>183014017</v>
       </c>
@@ -4953,7 +4990,7 @@
         <v>A+</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>183014024</v>
       </c>
@@ -4989,7 +5026,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>183014029</v>
       </c>
@@ -5021,7 +5058,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>183014031</v>
       </c>
@@ -5057,7 +5094,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>183014035</v>
       </c>
@@ -5093,7 +5130,7 @@
         <v>B-</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>183014046</v>
       </c>
@@ -5129,7 +5166,7 @@
         <v>C+</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>183014050</v>
       </c>
@@ -5165,7 +5202,7 @@
         <v>B-</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>183014052</v>
       </c>
@@ -5201,7 +5238,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>183014056</v>
       </c>
@@ -5237,7 +5274,7 @@
         <v>C+</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>183014057</v>
       </c>
@@ -5273,7 +5310,7 @@
         <v>B-</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>183014063</v>
       </c>
@@ -5309,7 +5346,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15.75" thickBot="1">
+    <row r="36" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="11">
         <v>183014073</v>
       </c>
@@ -5366,21 +5403,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="12" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" customWidth="1"/>
+    <col min="3" max="12" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="29" customFormat="1">
+    <row r="1" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -5418,7 +5455,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>153014012</v>
       </c>
@@ -5461,7 +5498,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>171014081</v>
       </c>
@@ -5504,7 +5541,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>173014009</v>
       </c>
@@ -5547,7 +5584,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>173014029</v>
       </c>
@@ -5590,7 +5627,7 @@
         <v>B-</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>181014002</v>
       </c>
@@ -5633,7 +5670,7 @@
         <v>B-</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>181014008</v>
       </c>
@@ -5676,7 +5713,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>181014025</v>
       </c>
@@ -5719,7 +5756,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>181014032</v>
       </c>
@@ -5762,7 +5799,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>181014057</v>
       </c>
@@ -5805,7 +5842,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>181014060</v>
       </c>
@@ -5848,7 +5885,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>181014131</v>
       </c>
@@ -5891,7 +5928,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>182014030</v>
       </c>
@@ -5934,7 +5971,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>182014052</v>
       </c>
@@ -5977,7 +6014,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>182014055</v>
       </c>
@@ -6020,7 +6057,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>182014061</v>
       </c>
@@ -6063,7 +6100,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>182014069</v>
       </c>
@@ -6106,7 +6143,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>182014071</v>
       </c>
@@ -6149,7 +6186,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>183014002</v>
       </c>
@@ -6192,7 +6229,7 @@
         <v>B+</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>183014004</v>
       </c>
@@ -6235,7 +6272,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>183014007</v>
       </c>
@@ -6278,7 +6315,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>183014009</v>
       </c>
@@ -6321,7 +6358,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>183014012</v>
       </c>
@@ -6364,7 +6401,7 @@
         <v>B+</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>183014014</v>
       </c>
@@ -6407,7 +6444,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>183014017</v>
       </c>
@@ -6450,7 +6487,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>183014024</v>
       </c>
@@ -6493,7 +6530,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>183014029</v>
       </c>
@@ -6536,7 +6573,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>183014031</v>
       </c>
@@ -6579,7 +6616,7 @@
         <v>A+</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>183014035</v>
       </c>
@@ -6622,7 +6659,7 @@
         <v>C+</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>183014046</v>
       </c>
@@ -6665,7 +6702,7 @@
         <v>C+</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>183014050</v>
       </c>
@@ -6708,7 +6745,7 @@
         <v>A-</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>183014052</v>
       </c>
@@ -6751,7 +6788,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>183014056</v>
       </c>
@@ -6794,7 +6831,7 @@
         <v>A-</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>183014057</v>
       </c>
@@ -6837,7 +6874,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>183014063</v>
       </c>
@@ -6880,7 +6917,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="15.75" thickBot="1">
+    <row r="36" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="11">
         <v>183014073</v>
       </c>
@@ -6923,23 +6960,23 @@
         <v>F</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="K37" s="18"/>
       <c r="L37" s="21"/>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="K38" s="18"/>
       <c r="L38" s="21"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="K39" s="19"/>
       <c r="L39" s="21"/>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="K40" s="19"/>
       <c r="L40" s="21"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G41" s="16"/>
       <c r="H41" s="16"/>
       <c r="I41" s="16"/>
@@ -6959,22 +6996,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:N36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="13" width="14.7109375" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" customWidth="1"/>
+    <col min="3" max="13" width="14.6640625" customWidth="1"/>
+    <col min="14" max="14" width="14.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.95" customHeight="1">
+    <row r="1" spans="1:14" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -7018,7 +7055,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1">
+    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>153014012</v>
       </c>
@@ -7062,7 +7099,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>171014081</v>
       </c>
@@ -7102,7 +7139,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>173014009</v>
       </c>
@@ -7146,7 +7183,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>173014029</v>
       </c>
@@ -7192,7 +7229,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>181014002</v>
       </c>
@@ -7238,7 +7275,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>181014008</v>
       </c>
@@ -7284,7 +7321,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>181014025</v>
       </c>
@@ -7330,7 +7367,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>181014032</v>
       </c>
@@ -7372,7 +7409,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>181014057</v>
       </c>
@@ -7418,7 +7455,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>181014060</v>
       </c>
@@ -7462,7 +7499,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>181014131</v>
       </c>
@@ -7506,7 +7543,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>182014030</v>
       </c>
@@ -7550,7 +7587,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>182014052</v>
       </c>
@@ -7594,7 +7631,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>182014055</v>
       </c>
@@ -7640,7 +7677,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>182014061</v>
       </c>
@@ -7686,7 +7723,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>182014069</v>
       </c>
@@ -7730,7 +7767,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>182014071</v>
       </c>
@@ -7774,7 +7811,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>183014002</v>
       </c>
@@ -7822,7 +7859,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>183014004</v>
       </c>
@@ -7866,7 +7903,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>183014007</v>
       </c>
@@ -7910,7 +7947,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>183014009</v>
       </c>
@@ -7954,7 +7991,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>183014012</v>
       </c>
@@ -8000,7 +8037,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>183014014</v>
       </c>
@@ -8046,7 +8083,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>183014017</v>
       </c>
@@ -8090,7 +8127,7 @@
         <v>C+</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>183014024</v>
       </c>
@@ -8134,7 +8171,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>183014029</v>
       </c>
@@ -8178,7 +8215,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>183014031</v>
       </c>
@@ -8224,7 +8261,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>183014035</v>
       </c>
@@ -8270,7 +8307,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>183014046</v>
       </c>
@@ -8316,7 +8353,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>183014050</v>
       </c>
@@ -8360,7 +8397,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>183014052</v>
       </c>
@@ -8406,7 +8443,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>183014056</v>
       </c>
@@ -8452,7 +8489,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>183014057</v>
       </c>
@@ -8496,7 +8533,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>183014063</v>
       </c>
@@ -8542,7 +8579,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="15.75" thickBot="1">
+    <row r="36" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="11">
         <v>183014073</v>
       </c>
@@ -8618,21 +8655,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="14" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" customWidth="1"/>
+    <col min="3" max="14" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -8676,7 +8713,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>153014012</v>
       </c>
@@ -8720,7 +8757,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>171014081</v>
       </c>
@@ -8760,7 +8797,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>173014009</v>
       </c>
@@ -8800,7 +8837,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>173014029</v>
       </c>
@@ -8846,7 +8883,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>181014002</v>
       </c>
@@ -8894,7 +8931,7 @@
         <v>C+</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>181014008</v>
       </c>
@@ -8934,7 +8971,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>181014025</v>
       </c>
@@ -8978,7 +9015,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>181014032</v>
       </c>
@@ -9018,7 +9055,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>181014057</v>
       </c>
@@ -9058,7 +9095,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>181014060</v>
       </c>
@@ -9106,7 +9143,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>181014131</v>
       </c>
@@ -9146,7 +9183,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>182014030</v>
       </c>
@@ -9192,7 +9229,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>182014052</v>
       </c>
@@ -9236,7 +9273,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>182014055</v>
       </c>
@@ -9284,7 +9321,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>182014061</v>
       </c>
@@ -9324,7 +9361,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>182014069</v>
       </c>
@@ -9364,7 +9401,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>182014071</v>
       </c>
@@ -9404,7 +9441,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>183014002</v>
       </c>
@@ -9452,7 +9489,7 @@
         <v>B+</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>183014004</v>
       </c>
@@ -9496,7 +9533,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>183014007</v>
       </c>
@@ -9544,7 +9581,7 @@
         <v>C+</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>183014009</v>
       </c>
@@ -9592,7 +9629,7 @@
         <v>B</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>183014012</v>
       </c>
@@ -9636,7 +9673,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>183014014</v>
       </c>
@@ -9684,7 +9721,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>183014017</v>
       </c>
@@ -9732,7 +9769,7 @@
         <v>C+</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>183014024</v>
       </c>
@@ -9780,7 +9817,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>183014029</v>
       </c>
@@ -9820,7 +9857,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>183014031</v>
       </c>
@@ -9868,7 +9905,7 @@
         <v>C+</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>183014035</v>
       </c>
@@ -9916,7 +9953,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>183014046</v>
       </c>
@@ -9960,7 +9997,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>183014050</v>
       </c>
@@ -10008,7 +10045,7 @@
         <v>C+</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>183014052</v>
       </c>
@@ -10056,7 +10093,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>183014056</v>
       </c>
@@ -10100,7 +10137,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>183014057</v>
       </c>
@@ -10148,7 +10185,7 @@
         <v>F</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>183014063</v>
       </c>
@@ -10196,7 +10233,7 @@
         <v>C</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="15.75" thickBot="1">
+    <row r="36" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="11">
         <v>183014073</v>
       </c>
@@ -10275,22 +10312,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="16" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" style="16" customWidth="1"/>
-    <col min="3" max="7" width="14.7109375" style="16" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="1" width="14.6640625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" style="16" customWidth="1"/>
+    <col min="3" max="7" width="14.6640625" style="16" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -10313,7 +10350,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>153014012</v>
       </c>
@@ -10333,15 +10370,15 @@
         <v>12</v>
       </c>
       <c r="F2" s="33">
-        <f>(E2/E$37)*100</f>
+        <f t="shared" ref="F2:F36" si="1">(E2/E$37)*100</f>
         <v>60</v>
       </c>
       <c r="G2" s="34" t="str">
-        <f t="shared" ref="G2:G36" si="1">IF(F2&gt;94,"A+",IF(F2&gt;84,"A",IF(F2&gt;79,"A-",IF(F2&gt;74,"B+",IF(F2&gt;69,"B",IF(F2&gt;64,"B-",IF(F2&gt;59,"C+",IF(F2&gt;54,"C",IF(F2&gt;49,"D","F")))))))))</f>
+        <f t="shared" ref="G2:G36" si="2">IF(F2&gt;94,"A+",IF(F2&gt;84,"A",IF(F2&gt;79,"A-",IF(F2&gt;74,"B+",IF(F2&gt;69,"B",IF(F2&gt;64,"B-",IF(F2&gt;59,"C+",IF(F2&gt;54,"C",IF(F2&gt;49,"D","F")))))))))</f>
         <v>C+</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>171014081</v>
       </c>
@@ -10361,15 +10398,15 @@
         <v>12</v>
       </c>
       <c r="F3" s="33">
-        <f>(E3/E$37)*100</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="G3" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>C+</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>173014009</v>
       </c>
@@ -10389,15 +10426,15 @@
         <v>19</v>
       </c>
       <c r="F4" s="33">
-        <f>(E4/E$37)*100</f>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="G4" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>A+</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>173014029</v>
       </c>
@@ -10417,15 +10454,15 @@
         <v>14</v>
       </c>
       <c r="F5" s="33">
-        <f>(E5/E$37)*100</f>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="G5" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>B</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>181014002</v>
       </c>
@@ -10445,15 +10482,15 @@
         <v>17</v>
       </c>
       <c r="F6" s="33">
-        <f>(E6/E$37)*100</f>
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="G6" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>A</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>181014008</v>
       </c>
@@ -10473,15 +10510,15 @@
         <v>14</v>
       </c>
       <c r="F7" s="33">
-        <f>(E7/E$37)*100</f>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="G7" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>B</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>181014025</v>
       </c>
@@ -10501,15 +10538,15 @@
         <v>12</v>
       </c>
       <c r="F8" s="33">
-        <f>(E8/E$37)*100</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="G8" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>C+</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>181014032</v>
       </c>
@@ -10529,15 +10566,15 @@
         <v>17.5</v>
       </c>
       <c r="F9" s="33">
-        <f>(E9/E$37)*100</f>
+        <f t="shared" si="1"/>
         <v>87.5</v>
       </c>
       <c r="G9" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>A</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>181014057</v>
       </c>
@@ -10557,15 +10594,15 @@
         <v>12</v>
       </c>
       <c r="F10" s="33">
-        <f>(E10/E$37)*100</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="G10" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>C+</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>181014060</v>
       </c>
@@ -10585,15 +10622,15 @@
         <v>12</v>
       </c>
       <c r="F11" s="33">
-        <f>(E11/E$37)*100</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="G11" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>C+</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>181014131</v>
       </c>
@@ -10613,15 +10650,15 @@
         <v>18.5</v>
       </c>
       <c r="F12" s="33">
-        <f>(E12/E$37)*100</f>
+        <f t="shared" si="1"/>
         <v>92.5</v>
       </c>
       <c r="G12" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>A</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>182014030</v>
       </c>
@@ -10641,15 +10678,15 @@
         <v>12</v>
       </c>
       <c r="F13" s="33">
-        <f>(E13/E$37)*100</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="G13" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>C+</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>182014052</v>
       </c>
@@ -10669,15 +10706,15 @@
         <v>18</v>
       </c>
       <c r="F14" s="33">
-        <f>(E14/E$37)*100</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="G14" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>A</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>182014055</v>
       </c>
@@ -10697,15 +10734,15 @@
         <v>17</v>
       </c>
       <c r="F15" s="33">
-        <f>(E15/E$37)*100</f>
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="G15" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>A</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>182014061</v>
       </c>
@@ -10725,15 +10762,15 @@
         <v>18</v>
       </c>
       <c r="F16" s="33">
-        <f>(E16/E$37)*100</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="G16" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>A</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>182014069</v>
       </c>
@@ -10753,15 +10790,15 @@
         <v>17.5</v>
       </c>
       <c r="F17" s="33">
-        <f>(E17/E$37)*100</f>
+        <f t="shared" si="1"/>
         <v>87.5</v>
       </c>
       <c r="G17" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>A</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>182014071</v>
       </c>
@@ -10781,15 +10818,15 @@
         <v>12</v>
       </c>
       <c r="F18" s="33">
-        <f>(E18/E$37)*100</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="G18" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>C+</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>183014002</v>
       </c>
@@ -10809,15 +10846,15 @@
         <v>19</v>
       </c>
       <c r="F19" s="33">
-        <f>(E19/E$37)*100</f>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="G19" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>A+</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>183014004</v>
       </c>
@@ -10837,15 +10874,15 @@
         <v>19</v>
       </c>
       <c r="F20" s="33">
-        <f>(E20/E$37)*100</f>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="G20" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>A+</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>183014007</v>
       </c>
@@ -10865,15 +10902,15 @@
         <v>19</v>
       </c>
       <c r="F21" s="33">
-        <f>(E21/E$37)*100</f>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="G21" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>A+</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>183014009</v>
       </c>
@@ -10893,15 +10930,15 @@
         <v>18.5</v>
       </c>
       <c r="F22" s="33">
-        <f>(E22/E$37)*100</f>
+        <f t="shared" si="1"/>
         <v>92.5</v>
       </c>
       <c r="G22" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>A</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>183014012</v>
       </c>
@@ -10921,15 +10958,15 @@
         <v>19</v>
       </c>
       <c r="F23" s="33">
-        <f>(E23/E$37)*100</f>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="G23" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>A+</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>183014014</v>
       </c>
@@ -10949,15 +10986,15 @@
         <v>17</v>
       </c>
       <c r="F24" s="33">
-        <f>(E24/E$37)*100</f>
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="G24" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>A</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>183014017</v>
       </c>
@@ -10977,15 +11014,15 @@
         <v>17.5</v>
       </c>
       <c r="F25" s="33">
-        <f>(E25/E$37)*100</f>
+        <f t="shared" si="1"/>
         <v>87.5</v>
       </c>
       <c r="G25" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>A</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>183014024</v>
       </c>
@@ -11005,15 +11042,15 @@
         <v>14</v>
       </c>
       <c r="F26" s="33">
-        <f>(E26/E$37)*100</f>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="G26" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>B</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>183014029</v>
       </c>
@@ -11033,15 +11070,15 @@
         <v>19</v>
       </c>
       <c r="F27" s="33">
-        <f>(E27/E$37)*100</f>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="G27" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>A+</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>183014031</v>
       </c>
@@ -11061,15 +11098,15 @@
         <v>18</v>
       </c>
       <c r="F28" s="33">
-        <f>(E28/E$37)*100</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="G28" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>A</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>183014035</v>
       </c>
@@ -11089,15 +11126,15 @@
         <v>17.5</v>
       </c>
       <c r="F29" s="33">
-        <f>(E29/E$37)*100</f>
+        <f t="shared" si="1"/>
         <v>87.5</v>
       </c>
       <c r="G29" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>A</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>183014046</v>
       </c>
@@ -11117,15 +11154,15 @@
         <v>18.5</v>
       </c>
       <c r="F30" s="33">
-        <f>(E30/E$37)*100</f>
+        <f t="shared" si="1"/>
         <v>92.5</v>
       </c>
       <c r="G30" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>A</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>183014050</v>
       </c>
@@ -11145,15 +11182,15 @@
         <v>19</v>
       </c>
       <c r="F31" s="33">
-        <f>(E31/E$37)*100</f>
+        <f t="shared" si="1"/>
         <v>95</v>
       </c>
       <c r="G31" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>A+</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>183014052</v>
       </c>
@@ -11173,15 +11210,15 @@
         <v>17</v>
       </c>
       <c r="F32" s="33">
-        <f>(E32/E$37)*100</f>
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="G32" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>A</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>183014056</v>
       </c>
@@ -11201,15 +11238,15 @@
         <v>17</v>
       </c>
       <c r="F33" s="33">
-        <f>(E33/E$37)*100</f>
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="G33" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>A</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>183014057</v>
       </c>
@@ -11229,15 +11266,15 @@
         <v>17.5</v>
       </c>
       <c r="F34" s="33">
-        <f>(E34/E$37)*100</f>
+        <f t="shared" si="1"/>
         <v>87.5</v>
       </c>
       <c r="G34" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>A</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>183014063</v>
       </c>
@@ -11257,15 +11294,15 @@
         <v>17</v>
       </c>
       <c r="F35" s="33">
-        <f>(E35/E$37)*100</f>
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
       <c r="G35" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>A</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15.75" thickBot="1">
+    <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="11">
         <v>183014073</v>
       </c>
@@ -11285,15 +11322,15 @@
         <v>17.5</v>
       </c>
       <c r="F36" s="35">
-        <f>(E36/E$37)*100</f>
+        <f t="shared" si="1"/>
         <v>87.5</v>
       </c>
       <c r="G36" s="36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>A</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C37" s="16">
         <v>10</v>
       </c>
